--- a/기획문서/UDP_PlayerWeapons.xlsx
+++ b/기획문서/UDP_PlayerWeapons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C\UDP\기획문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C46FE5-640E-48D4-886E-B9EF4AA0B3DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB78C5CB-37C8-4DB3-8B84-D543B784F66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
   </bookViews>
@@ -625,38 +625,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -667,6 +643,108 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -675,84 +753,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1090,7 +1090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9994DB1-7A88-429D-9CFE-E67689A4F62A}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1124,263 +1124,263 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="27">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="26">
         <v>20</v>
       </c>
       <c r="E2" s="4">
         <v>5</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="26">
         <v>3</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="56"/>
+      <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="4">
         <v>4</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="4">
         <v>6</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="56"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="4">
         <v>5</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="4">
         <v>7</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="32"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="4">
         <v>6</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="4">
         <v>8</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="33"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="37">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <v>2</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <v>25</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="26">
         <v>5</v>
       </c>
       <c r="F6" s="4">
         <v>6</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="37"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="G7" s="57"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="37"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="4">
         <v>4</v>
       </c>
-      <c r="G8" s="57"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="37"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="11">
         <v>3</v>
       </c>
-      <c r="G9" s="58"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="37">
+      <c r="A10" s="31">
         <v>3</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <v>10</v>
       </c>
       <c r="D10" s="4">
         <v>20</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <v>1</v>
       </c>
       <c r="F10" s="4">
         <v>6</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="38" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="37"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="4">
         <v>30</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="G11" s="60"/>
+      <c r="G11" s="39"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="37"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="4">
         <v>40</v>
       </c>
-      <c r="E12" s="28"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="4">
         <v>4</v>
       </c>
-      <c r="G12" s="60"/>
+      <c r="G12" s="39"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="37"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="11">
         <v>50</v>
       </c>
-      <c r="E13" s="29"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="61"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="37">
+      <c r="A14" s="31">
         <v>4</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="26">
         <v>20</v>
       </c>
       <c r="E14" s="4">
         <v>4</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="26">
         <v>8</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="23" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="37"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="4">
         <v>6</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="4">
         <v>5</v>
       </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="32"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="37"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="4">
         <v>7</v>
       </c>
-      <c r="D16" s="28"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="4">
         <v>6</v>
       </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="32"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="37"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="4">
         <v>8</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="4">
         <v>7</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="33"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="25"/>
       <c r="H17" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="56" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="22" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1391,13 +1391,13 @@
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1409,13 +1409,13 @@
       <c r="B20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="14" t="s">
         <v>67</v>
       </c>
@@ -1427,30 +1427,19 @@
       <c r="B21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="14" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="F2:F5"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="C19:G19"/>
@@ -1465,6 +1454,17 @@
     <mergeCell ref="F14:F17"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="G6:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1509,7 +1509,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="27">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1518,63 +1518,63 @@
       <c r="C2" s="6">
         <v>25</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="26">
         <v>25</v>
       </c>
-      <c r="E2" s="38">
+      <c r="E2" s="52">
         <v>1</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="42">
         <v>1</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="42" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="28"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="6">
         <v>35</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="40"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="28"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="6">
         <v>40</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="40"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="29"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="6">
         <v>50</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="42"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="30">
+      <c r="A6" s="51">
         <v>2</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="20" t="s">
         <v>35</v>
       </c>
       <c r="C6" s="12">
@@ -1586,54 +1586,54 @@
       <c r="E6" s="45">
         <v>1</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="48">
         <v>11</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="48" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="30"/>
-      <c r="B7" s="44" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="12">
         <v>20</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="30"/>
-      <c r="B8" s="44" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="12">
         <v>25</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="30"/>
-      <c r="B9" s="44" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="12">
         <v>30</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="20">
+      <c r="A10" s="55">
         <v>3</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1648,54 +1648,54 @@
       <c r="E10" s="45">
         <v>1</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="48">
         <v>13</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="48" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="20"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="12">
         <v>75</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="47"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="20"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="12">
         <v>90</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="47"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="46"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="20"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="12">
         <v>120</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="50"/>
-      <c r="G13" s="49"/>
+      <c r="G13" s="47"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="20">
+      <c r="A14" s="55">
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1704,7 +1704,7 @@
       <c r="C14" s="6">
         <v>25</v>
       </c>
-      <c r="D14" s="27">
+      <c r="D14" s="26">
         <v>25</v>
       </c>
       <c r="E14" s="45">
@@ -1713,48 +1713,48 @@
       <c r="F14" s="45">
         <v>10</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="48" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="20"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="6">
         <v>35</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="20"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="6">
         <v>40</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="20"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="6">
         <v>50</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
@@ -1763,13 +1763,13 @@
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1781,13 +1781,13 @@
       <c r="B20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="7">
         <v>20</v>
       </c>
@@ -1799,19 +1799,33 @@
       <c r="B21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="51">
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="21">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="E6:E9"/>
@@ -1821,20 +1835,6 @@
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="G6:G9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1879,78 +1879,78 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="37">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="15">
         <v>6</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="26">
         <v>25</v>
       </c>
-      <c r="E2" s="27">
+      <c r="E2" s="26">
         <v>4</v>
       </c>
-      <c r="F2" s="27">
+      <c r="F2" s="26">
         <v>2</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="23" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="37"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="15">
         <v>8</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="32"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="37"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="15">
         <v>10</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="32"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="37"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="15">
         <v>12</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="33"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="37">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="15">
         <v>12</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <v>30</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="26">
         <v>2</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="26">
         <v>6</v>
       </c>
       <c r="G6" s="16" t="s">
@@ -1958,58 +1958,58 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="37"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="15">
         <v>16</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="37"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="15">
         <v>20</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="17" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="37"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="15">
         <v>24</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="37">
+      <c r="A10" s="31">
         <v>3</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="15">
         <v>10</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="26">
         <v>20</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="26">
         <v>1</v>
       </c>
       <c r="F10" s="4">
@@ -2020,13 +2020,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="37"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="15">
         <v>11</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="4">
         <v>11</v>
       </c>
@@ -2035,13 +2035,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="37"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="15">
         <v>12</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="4">
         <v>10</v>
       </c>
@@ -2050,13 +2050,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="37"/>
-      <c r="B13" s="29"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="15">
         <v>13</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="4">
         <v>9</v>
       </c>
@@ -2065,60 +2065,60 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="37">
+      <c r="A14" s="31">
         <v>4</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="15">
         <v>48</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="26">
         <v>1</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="26">
         <v>12</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="23" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="37"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="15">
         <v>60</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="32"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="37"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="15">
         <v>72</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="32"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="37"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="15">
         <v>84</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="33"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
@@ -2127,13 +2127,13 @@
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2145,13 +2145,13 @@
       <c r="B20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="62"/>
       <c r="H20" s="14">
         <v>12</v>
       </c>
@@ -2163,27 +2163,19 @@
       <c r="B21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="14">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
@@ -2200,6 +2192,14 @@
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="G2:G5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2244,7 +2244,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="27">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
@@ -2255,7 +2255,7 @@
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="28"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2264,7 +2264,7 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="28"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2273,7 +2273,7 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="29"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2282,7 +2282,7 @@
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="30">
+      <c r="A6" s="51">
         <v>2</v>
       </c>
       <c r="B6" s="2"/>
@@ -2293,7 +2293,7 @@
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="30"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -2302,7 +2302,7 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="30"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -2311,7 +2311,7 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="30"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -2320,7 +2320,7 @@
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="20">
+      <c r="A10" s="55">
         <v>3</v>
       </c>
       <c r="B10" s="9"/>
@@ -2331,7 +2331,7 @@
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="20"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -2340,7 +2340,7 @@
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="20"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2349,7 +2349,7 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="20"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2358,7 +2358,7 @@
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="20">
+      <c r="A14" s="55">
         <v>4</v>
       </c>
       <c r="B14" s="9"/>
@@ -2369,7 +2369,7 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="20"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2378,7 +2378,7 @@
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="20"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2387,7 +2387,7 @@
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="20"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -2402,13 +2402,13 @@
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2418,11 +2418,11 @@
         <v>11</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -2430,11 +2430,11 @@
         <v>10</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="13"/>
     </row>
   </sheetData>

--- a/기획문서/UDP_PlayerWeapons.xlsx
+++ b/기획문서/UDP_PlayerWeapons.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C\UDP\기획문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubProject\UDP\기획문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB78C5CB-37C8-4DB3-8B84-D543B784F66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BA9682-B2FB-45DB-9680-63FC5ECCED92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="근거리" sheetId="4" r:id="rId1"/>
@@ -634,6 +634,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -643,13 +682,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -658,91 +691,58 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1094,13 +1094,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
-    <col min="7" max="7" width="50.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1123,323 +1123,334 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="26">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="30">
         <v>20</v>
       </c>
       <c r="E2" s="4">
         <v>5</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="30">
         <v>3</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="36" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="4">
         <v>4</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="4">
         <v>6</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="24"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="4">
         <v>5</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="4">
         <v>7</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="4">
         <v>6</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="4">
         <v>8</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="31">
+      <c r="F5" s="32"/>
+      <c r="G5" s="38"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="30">
         <v>2</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="30">
         <v>25</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="30">
         <v>5</v>
       </c>
       <c r="F6" s="4">
         <v>6</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="31"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="31"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="4">
         <v>4</v>
       </c>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="31"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="11">
         <v>3</v>
       </c>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="31">
+      <c r="G9" s="41"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
         <v>3</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="30">
         <v>10</v>
       </c>
       <c r="D10" s="4">
         <v>20</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="30">
         <v>1</v>
       </c>
       <c r="F10" s="4">
         <v>6</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="31"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="4">
         <v>30</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="G11" s="39"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="31"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="4">
         <v>40</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="4">
         <v>4</v>
       </c>
-      <c r="G12" s="39"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="31"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="11">
         <v>50</v>
       </c>
-      <c r="E13" s="28"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="31">
+      <c r="G13" s="35"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
         <v>4</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="30">
         <v>20</v>
       </c>
       <c r="E14" s="4">
         <v>4</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="30">
         <v>8</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="31"/>
-      <c r="B15" s="27"/>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="4">
         <v>6</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="4">
         <v>5</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="31"/>
-      <c r="B16" s="27"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="4">
         <v>7</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="4">
         <v>6</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="31"/>
-      <c r="B17" s="28"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="4">
         <v>8</v>
       </c>
-      <c r="D17" s="28"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="4">
         <v>7</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="25"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="38"/>
       <c r="H17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="41" t="s">
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="14" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="F2:F5"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="C19:G19"/>
@@ -1454,17 +1465,6 @@
     <mergeCell ref="F14:F17"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="G6:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1479,13 +1479,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
-    <col min="7" max="7" width="45.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1508,8 +1508,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="26">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1518,59 +1518,59 @@
       <c r="C2" s="6">
         <v>25</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="30">
         <v>25</v>
       </c>
       <c r="E2" s="52">
         <v>1</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="55">
         <v>1</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="55" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="27"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
       <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="6">
         <v>35</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="43"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="27"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="53"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
       <c r="B4" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="6">
         <v>40</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="43"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="28"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="53"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
       <c r="B5" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="6">
         <v>50</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="44"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D5" s="32"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="54"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="51">
         <v>2</v>
       </c>
@@ -1580,20 +1580,20 @@
       <c r="C6" s="12">
         <v>15</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="47">
         <v>15</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="47">
         <v>1</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="50">
         <v>11</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51"/>
       <c r="B7" s="20" t="s">
         <v>36</v>
@@ -1601,12 +1601,12 @@
       <c r="C7" s="12">
         <v>20</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="51"/>
       <c r="B8" s="20" t="s">
         <v>37</v>
@@ -1614,12 +1614,12 @@
       <c r="C8" s="12">
         <v>25</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="51"/>
       <c r="B9" s="20" t="s">
         <v>38</v>
@@ -1627,13 +1627,13 @@
       <c r="C9" s="12">
         <v>30</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="55">
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42">
         <v>3</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1642,60 +1642,60 @@
       <c r="C10" s="12">
         <v>50</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="47">
         <v>1</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="50">
         <v>13</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="50" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="55"/>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42"/>
       <c r="B11" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="12">
         <v>75</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="46"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="55"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="48"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42"/>
       <c r="B12" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="12">
         <v>90</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="46"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="55"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="48"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42"/>
       <c r="B13" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="12">
         <v>120</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="47"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="55">
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="49"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42">
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1704,114 +1704,128 @@
       <c r="C14" s="6">
         <v>25</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="30">
         <v>25</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="47">
         <v>4</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="47">
         <v>10</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="50" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="55"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
       <c r="B15" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="6">
         <v>35</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="55"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42"/>
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="6">
         <v>40</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="55"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42"/>
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="6">
         <v>50</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D17" s="32"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="21">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="C19:G19"/>
@@ -1821,20 +1835,6 @@
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="F14:F17"/>
     <mergeCell ref="G14:G17"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="G6:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1845,17 +1845,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C119C-42F6-4CF6-ADF9-8275A6751DB2}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
-    <col min="7" max="7" width="45.58203125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="45.625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1878,138 +1878,138 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="31">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="15">
         <v>6</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="30">
         <v>25</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="30">
         <v>4</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="30">
         <v>2</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="31"/>
-      <c r="B3" s="27"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="15">
         <v>8</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="31"/>
-      <c r="B4" s="27"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="15">
         <v>10</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="31"/>
-      <c r="B5" s="28"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="15">
         <v>12</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="31">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="38"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="15">
         <v>12</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="30">
         <v>30</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="30">
         <v>2</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="30">
         <v>6</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="31"/>
-      <c r="B7" s="27"/>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="15">
         <v>16</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="31"/>
-      <c r="B8" s="27"/>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="15">
         <v>20</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="31"/>
-      <c r="B9" s="28"/>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="15">
         <v>24</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="31">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
         <v>3</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="15">
         <v>10</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="30">
         <v>20</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="30">
         <v>1</v>
       </c>
       <c r="F10" s="4">
@@ -2019,14 +2019,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="31"/>
-      <c r="B11" s="27"/>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="15">
         <v>11</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="4">
         <v>11</v>
       </c>
@@ -2034,14 +2034,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="31"/>
-      <c r="B12" s="27"/>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="15">
         <v>12</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="4">
         <v>10</v>
       </c>
@@ -2049,14 +2049,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="31"/>
-      <c r="B13" s="28"/>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="15">
         <v>13</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="4">
         <v>9</v>
       </c>
@@ -2064,81 +2064,81 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="31">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
         <v>4</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="15">
         <v>48</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="30">
         <v>1</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="30">
         <v>12</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="31"/>
-      <c r="B15" s="27"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="15">
         <v>60</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="31"/>
-      <c r="B16" s="27"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="15">
         <v>72</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="31"/>
-      <c r="B17" s="28"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="15">
         <v>84</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -2176,6 +2176,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
@@ -2192,14 +2200,6 @@
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="G2:G5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2214,13 +2214,13 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
-    <col min="7" max="7" width="45.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2243,8 +2243,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="26">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
@@ -2254,8 +2254,8 @@
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="27"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2263,8 +2263,8 @@
       <c r="F3" s="6"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2272,8 +2272,8 @@
       <c r="F4" s="6"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="28"/>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2281,7 +2281,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="51">
         <v>2</v>
       </c>
@@ -2292,7 +2292,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2301,7 +2301,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="51"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2310,7 +2310,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="51"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -2319,8 +2319,8 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="55">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42">
         <v>3</v>
       </c>
       <c r="B10" s="9"/>
@@ -2330,8 +2330,8 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="55"/>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -2339,8 +2339,8 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="55"/>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2348,8 +2348,8 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="55"/>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2357,8 +2357,8 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="55">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42">
         <v>4</v>
       </c>
       <c r="B14" s="9"/>
@@ -2368,8 +2368,8 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="55"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2377,8 +2377,8 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="55"/>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2386,8 +2386,8 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="55"/>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -2395,46 +2395,46 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="13"/>
     </row>
   </sheetData>

--- a/기획문서/UDP_PlayerWeapons.xlsx
+++ b/기획문서/UDP_PlayerWeapons.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubProject\UDP\기획문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C\UDP\기획문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BA9682-B2FB-45DB-9680-63FC5ECCED92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E341A052-1ABA-4F3B-8C16-76EFAE59D693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="근거리" sheetId="4" r:id="rId1"/>
@@ -634,6 +634,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,15 +677,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -673,23 +688,47 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,45 +743,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1094,13 +1094,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="50.625" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="50.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1123,334 +1123,323 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="26">
         <v>20</v>
       </c>
       <c r="E2" s="4">
         <v>5</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="26">
         <v>3</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="23" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="4">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="4">
         <v>6</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="4">
         <v>5</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="4">
         <v>7</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="37"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="4">
         <v>6</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="4">
         <v>8</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="38"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+      <c r="F5" s="28"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="26">
         <v>2</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="26">
         <v>25</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="26">
         <v>5</v>
       </c>
       <c r="F6" s="4">
         <v>6</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="31"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="4">
         <v>4</v>
       </c>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="31"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="11">
         <v>3</v>
       </c>
-      <c r="G9" s="41"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="31">
         <v>3</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="26">
         <v>10</v>
       </c>
       <c r="D10" s="4">
         <v>20</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="26">
         <v>1</v>
       </c>
       <c r="F10" s="4">
         <v>6</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="31"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="4">
         <v>30</v>
       </c>
-      <c r="E11" s="31"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="G11" s="34"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
+      <c r="G11" s="39"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="31"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="4">
         <v>40</v>
       </c>
-      <c r="E12" s="31"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="4">
         <v>4</v>
       </c>
-      <c r="G12" s="34"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
+      <c r="G12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="31"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="11">
         <v>50</v>
       </c>
-      <c r="E13" s="32"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="35"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="31">
         <v>4</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="26" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="26">
         <v>20</v>
       </c>
       <c r="E14" s="4">
         <v>4</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="26">
         <v>8</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="31"/>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="31"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="4">
         <v>6</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="4">
         <v>5</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="31"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="31"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="4">
         <v>7</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="4">
         <v>6</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="32"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="31"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="4">
         <v>8</v>
       </c>
-      <c r="D17" s="32"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="4">
         <v>7</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="38"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="25"/>
       <c r="H17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="14" t="s">
         <v>70</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="F2:F5"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="C19:G19"/>
@@ -1465,6 +1454,17 @@
     <mergeCell ref="F14:F17"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="G6:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1479,13 +1479,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="45.625" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="45.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1508,8 +1508,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1518,59 +1518,59 @@
       <c r="C2" s="6">
         <v>25</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="26">
         <v>25</v>
       </c>
       <c r="E2" s="52">
         <v>1</v>
       </c>
-      <c r="F2" s="55">
+      <c r="F2" s="42">
         <v>1</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="42" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="27"/>
       <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="6">
         <v>35</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="53"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="43"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="27"/>
       <c r="B4" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="6">
         <v>40</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="53"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="43"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="28"/>
       <c r="B5" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="6">
         <v>50</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="54"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="28"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="44"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="51">
         <v>2</v>
       </c>
@@ -1580,20 +1580,20 @@
       <c r="C6" s="12">
         <v>15</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="45">
         <v>15</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="45">
         <v>1</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="48">
         <v>11</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="51"/>
       <c r="B7" s="20" t="s">
         <v>36</v>
@@ -1601,12 +1601,12 @@
       <c r="C7" s="12">
         <v>20</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="51"/>
       <c r="B8" s="20" t="s">
         <v>37</v>
@@ -1614,12 +1614,12 @@
       <c r="C8" s="12">
         <v>25</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="51"/>
       <c r="B9" s="20" t="s">
         <v>38</v>
@@ -1627,13 +1627,13 @@
       <c r="C9" s="12">
         <v>30</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="55">
         <v>3</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1642,60 +1642,60 @@
       <c r="C10" s="12">
         <v>50</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="45">
         <v>1</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="48">
         <v>13</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="48" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="55"/>
       <c r="B11" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="12">
         <v>75</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="48"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="46"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="55"/>
       <c r="B12" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="12">
         <v>90</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="48"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="46"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="55"/>
       <c r="B13" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="12">
         <v>120</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="49"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="55">
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1704,114 +1704,128 @@
       <c r="C14" s="6">
         <v>25</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="26">
         <v>25</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="45">
         <v>4</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="45">
         <v>10</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="48" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="55"/>
       <c r="B15" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="6">
         <v>35</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="55"/>
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="6">
         <v>40</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="55"/>
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="6">
         <v>50</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="28"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
       <c r="H21" s="21">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="E6:E9"/>
@@ -1821,20 +1835,6 @@
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="G6:G9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1845,17 +1845,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C119C-42F6-4CF6-ADF9-8275A6751DB2}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="45.625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="45.58203125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1878,138 +1878,138 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="15">
         <v>6</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="26">
         <v>25</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="26">
         <v>4</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="26">
         <v>2</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="31"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="31"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="15">
         <v>8</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="37"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="31"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="31"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="15">
         <v>10</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="37"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="32"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="31"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="15">
         <v>12</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="38"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="15">
         <v>12</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="26">
         <v>30</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="26">
         <v>2</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="26">
         <v>6</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="31"/>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="31"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="15">
         <v>16</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="31"/>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="31"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="15">
         <v>20</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="32"/>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="31"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="15">
         <v>24</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="31">
         <v>3</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="26" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="15">
         <v>10</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="26">
         <v>20</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="26">
         <v>1</v>
       </c>
       <c r="F10" s="4">
@@ -2019,14 +2019,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="31"/>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="31"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="15">
         <v>11</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="4">
         <v>11</v>
       </c>
@@ -2034,14 +2034,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="31"/>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="31"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="15">
         <v>12</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="4">
         <v>10</v>
       </c>
@@ -2049,14 +2049,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="32"/>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="31"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="15">
         <v>13</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="4">
         <v>9</v>
       </c>
@@ -2064,81 +2064,81 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="31">
         <v>4</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="15">
         <v>48</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="26">
         <v>1</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="26">
         <v>12</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="31"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="31"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="15">
         <v>60</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="31"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="31"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="15">
         <v>72</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="32"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="31"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="15">
         <v>84</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="38"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -2176,14 +2176,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
@@ -2200,6 +2192,14 @@
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="G2:G5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2214,13 +2214,13 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="45.625" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="45.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2243,8 +2243,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
@@ -2254,8 +2254,8 @@
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="27"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2263,8 +2263,8 @@
       <c r="F3" s="6"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="27"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2272,8 +2272,8 @@
       <c r="F4" s="6"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="28"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2281,7 +2281,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="51">
         <v>2</v>
       </c>
@@ -2292,7 +2292,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="51"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2301,7 +2301,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="51"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2310,7 +2310,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="51"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -2319,8 +2319,8 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="55">
         <v>3</v>
       </c>
       <c r="B10" s="9"/>
@@ -2330,8 +2330,8 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="55"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -2339,8 +2339,8 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="55"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2348,8 +2348,8 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="55"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2357,8 +2357,8 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="55">
         <v>4</v>
       </c>
       <c r="B14" s="9"/>
@@ -2368,8 +2368,8 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="55"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2377,8 +2377,8 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="55"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2386,8 +2386,8 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="55"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -2395,46 +2395,46 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="13"/>
     </row>
   </sheetData>

--- a/기획문서/UDP_PlayerWeapons.xlsx
+++ b/기획문서/UDP_PlayerWeapons.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C\UDP\기획문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\UDP\기획문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E341A052-1ABA-4F3B-8C16-76EFAE59D693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47242C29-4092-4A4B-87C8-4273A8FF638F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="근거리" sheetId="4" r:id="rId1"/>
@@ -30,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -315,10 +313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>리플렉션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5초 동안 적에게 입힌 피해만큼 내구도를 회복합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -332,6 +326,10 @@
   </si>
   <si>
     <t>이동 중 반지름 6거리 이내의 적 포착 시 추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타오르는 힘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1090,17 +1088,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9994DB1-7A88-429D-9CFE-E67689A4F62A}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
-    <col min="7" max="7" width="50.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5625" customWidth="1"/>
+    <col min="7" max="7" width="50.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1123,7 +1121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -1147,7 +1145,7 @@
       </c>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="4">
@@ -1161,7 +1159,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="4">
@@ -1174,7 +1172,7 @@
       <c r="F4" s="27"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="4">
@@ -1187,7 +1185,7 @@
       <c r="F5" s="28"/>
       <c r="G5" s="25"/>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="31">
         <v>2</v>
       </c>
@@ -1210,7 +1208,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="31"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -1221,7 +1219,7 @@
       </c>
       <c r="G7" s="29"/>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="31"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
@@ -1232,7 +1230,7 @@
       </c>
       <c r="G8" s="29"/>
     </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="31"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -1243,7 +1241,7 @@
       </c>
       <c r="G9" s="30"/>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="31">
         <v>3</v>
       </c>
@@ -1266,7 +1264,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="31"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -1279,7 +1277,7 @@
       </c>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="31"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
@@ -1292,7 +1290,7 @@
       </c>
       <c r="G12" s="39"/>
     </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="31"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -1305,7 +1303,7 @@
       </c>
       <c r="G13" s="40"/>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A14" s="31">
         <v>4</v>
       </c>
@@ -1328,7 +1326,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A15" s="31"/>
       <c r="B15" s="27"/>
       <c r="C15" s="4">
@@ -1341,7 +1339,7 @@
       <c r="F15" s="27"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A16" s="31"/>
       <c r="B16" s="27"/>
       <c r="C16" s="4">
@@ -1354,7 +1352,7 @@
       <c r="F16" s="27"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A17" s="31"/>
       <c r="B17" s="28"/>
       <c r="C17" s="4">
@@ -1370,7 +1368,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A18" s="41" t="s">
         <v>63</v>
       </c>
@@ -1384,7 +1382,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -1402,7 +1400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -1420,22 +1418,22 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="35" t="s">
         <v>68</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>69</v>
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
       <c r="G21" s="37"/>
       <c r="H21" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1479,13 +1477,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
-    <col min="7" max="7" width="45.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5625" customWidth="1"/>
+    <col min="7" max="7" width="45.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1508,7 +1506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -1531,7 +1529,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="27"/>
       <c r="B3" s="6" t="s">
         <v>32</v>
@@ -1544,7 +1542,7 @@
       <c r="F3" s="53"/>
       <c r="G3" s="43"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27"/>
       <c r="B4" s="6" t="s">
         <v>33</v>
@@ -1557,7 +1555,7 @@
       <c r="F4" s="53"/>
       <c r="G4" s="43"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="28"/>
       <c r="B5" s="6" t="s">
         <v>34</v>
@@ -1570,7 +1568,7 @@
       <c r="F5" s="54"/>
       <c r="G5" s="44"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="51">
         <v>2</v>
       </c>
@@ -1593,7 +1591,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="51"/>
       <c r="B7" s="20" t="s">
         <v>36</v>
@@ -1606,7 +1604,7 @@
       <c r="F7" s="49"/>
       <c r="G7" s="49"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="51"/>
       <c r="B8" s="20" t="s">
         <v>37</v>
@@ -1619,7 +1617,7 @@
       <c r="F8" s="49"/>
       <c r="G8" s="49"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="51"/>
       <c r="B9" s="20" t="s">
         <v>38</v>
@@ -1632,7 +1630,7 @@
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="55">
         <v>3</v>
       </c>
@@ -1655,7 +1653,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="55"/>
       <c r="B11" s="10" t="s">
         <v>41</v>
@@ -1668,7 +1666,7 @@
       <c r="F11" s="49"/>
       <c r="G11" s="46"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="55"/>
       <c r="B12" s="10" t="s">
         <v>42</v>
@@ -1681,7 +1679,7 @@
       <c r="F12" s="49"/>
       <c r="G12" s="46"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="55"/>
       <c r="B13" s="10" t="s">
         <v>43</v>
@@ -1694,7 +1692,7 @@
       <c r="F13" s="50"/>
       <c r="G13" s="47"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A14" s="55">
         <v>4</v>
       </c>
@@ -1717,7 +1715,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A15" s="55"/>
       <c r="B15" s="10" t="s">
         <v>46</v>
@@ -1730,7 +1728,7 @@
       <c r="F15" s="46"/>
       <c r="G15" s="46"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A16" s="55"/>
       <c r="B16" s="10" t="s">
         <v>47</v>
@@ -1743,7 +1741,7 @@
       <c r="F16" s="46"/>
       <c r="G16" s="46"/>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A17" s="55"/>
       <c r="B17" s="10" t="s">
         <v>48</v>
@@ -1756,7 +1754,7 @@
       <c r="F17" s="47"/>
       <c r="G17" s="47"/>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -1774,7 +1772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -1792,7 +1790,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -1845,17 +1843,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C119C-42F6-4CF6-ADF9-8275A6751DB2}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
-    <col min="7" max="7" width="45.58203125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.5625" customWidth="1"/>
+    <col min="7" max="7" width="45.5625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1878,7 +1876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -1901,7 +1899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="31"/>
       <c r="B3" s="27"/>
       <c r="C3" s="15">
@@ -1912,7 +1910,7 @@
       <c r="F3" s="27"/>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="31"/>
       <c r="B4" s="27"/>
       <c r="C4" s="15">
@@ -1923,7 +1921,7 @@
       <c r="F4" s="27"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="31"/>
       <c r="B5" s="28"/>
       <c r="C5" s="15">
@@ -1934,7 +1932,7 @@
       <c r="F5" s="28"/>
       <c r="G5" s="25"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="31">
         <v>2</v>
       </c>
@@ -1954,10 +1952,10 @@
         <v>6</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="31"/>
       <c r="B7" s="27"/>
       <c r="C7" s="15">
@@ -1970,7 +1968,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="31"/>
       <c r="B8" s="27"/>
       <c r="C8" s="15">
@@ -1983,7 +1981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="31"/>
       <c r="B9" s="28"/>
       <c r="C9" s="15">
@@ -1996,7 +1994,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="31">
         <v>3</v>
       </c>
@@ -2016,10 +2014,10 @@
         <v>12</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="31"/>
       <c r="B11" s="27"/>
       <c r="C11" s="15">
@@ -2034,7 +2032,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="31"/>
       <c r="B12" s="27"/>
       <c r="C12" s="15">
@@ -2049,7 +2047,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="31"/>
       <c r="B13" s="28"/>
       <c r="C13" s="15">
@@ -2064,7 +2062,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A14" s="31">
         <v>4</v>
       </c>
@@ -2087,7 +2085,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A15" s="31"/>
       <c r="B15" s="27"/>
       <c r="C15" s="15">
@@ -2098,7 +2096,7 @@
       <c r="F15" s="27"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A16" s="31"/>
       <c r="B16" s="27"/>
       <c r="C16" s="15">
@@ -2109,7 +2107,7 @@
       <c r="F16" s="27"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A17" s="31"/>
       <c r="B17" s="28"/>
       <c r="C17" s="15">
@@ -2120,7 +2118,7 @@
       <c r="F17" s="28"/>
       <c r="G17" s="25"/>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -2138,7 +2136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -2156,7 +2154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -2214,13 +2212,13 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
-    <col min="7" max="7" width="45.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.5625" customWidth="1"/>
+    <col min="7" max="7" width="45.5625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2243,7 +2241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -2254,7 +2252,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="27"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2263,7 +2261,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="27"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -2272,7 +2270,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="28"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2281,7 +2279,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="51">
         <v>2</v>
       </c>
@@ -2292,7 +2290,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="51"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2301,7 +2299,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="51"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2310,7 +2308,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="51"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -2319,7 +2317,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="55">
         <v>3</v>
       </c>
@@ -2330,7 +2328,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="55"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -2339,7 +2337,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="55"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -2348,7 +2346,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="55"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -2357,7 +2355,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A14" s="55">
         <v>4</v>
       </c>
@@ -2368,7 +2366,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A15" s="55"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -2377,7 +2375,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A16" s="55"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -2386,7 +2384,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A17" s="55"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -2395,7 +2393,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -2413,7 +2411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -2425,7 +2423,7 @@
       <c r="G20" s="37"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>

--- a/기획문서/UDP_PlayerWeapons.xlsx
+++ b/기획문서/UDP_PlayerWeapons.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\UDP\기획문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubProject\UDP\기획문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47242C29-4092-4A4B-87C8-4273A8FF638F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF8C3B1-0CE2-475D-B95F-37C73DB2CA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="근거리" sheetId="4" r:id="rId1"/>
@@ -632,6 +632,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -641,13 +680,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -656,91 +689,58 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1088,17 +1088,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9994DB1-7A88-429D-9CFE-E67689A4F62A}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C21" sqref="C21:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.5625" customWidth="1"/>
-    <col min="7" max="7" width="50.5625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1121,323 +1121,334 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="26">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="30">
         <v>20</v>
       </c>
       <c r="E2" s="4">
         <v>5</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="30">
         <v>3</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="36" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="4">
         <v>4</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="4">
         <v>6</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="24"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="4">
         <v>5</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="4">
         <v>7</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="4">
         <v>6</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="4">
         <v>8</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="31">
+      <c r="F5" s="32"/>
+      <c r="G5" s="38"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="30">
         <v>2</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="30">
         <v>25</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="30">
         <v>5</v>
       </c>
       <c r="F6" s="4">
         <v>6</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="36" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="31"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="31"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="4">
         <v>4</v>
       </c>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="31"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="11">
         <v>3</v>
       </c>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="31">
+      <c r="G9" s="41"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
         <v>3</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="30">
         <v>10</v>
       </c>
       <c r="D10" s="4">
         <v>20</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="30">
         <v>1</v>
       </c>
       <c r="F10" s="4">
         <v>6</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="31"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="4">
         <v>30</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="G11" s="39"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="31"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="4">
         <v>40</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="4">
         <v>4</v>
       </c>
-      <c r="G12" s="39"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="31"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="G12" s="34"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="11">
         <v>50</v>
       </c>
-      <c r="E13" s="28"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="31">
+      <c r="G13" s="35"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
         <v>4</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="30" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="30">
         <v>20</v>
       </c>
       <c r="E14" s="4">
         <v>4</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="30">
         <v>8</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="31"/>
-      <c r="B15" s="27"/>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="4">
         <v>6</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="4">
         <v>5</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="31"/>
-      <c r="B16" s="27"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="4">
         <v>7</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="4">
         <v>6</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="31"/>
-      <c r="B17" s="28"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="4">
         <v>8</v>
       </c>
-      <c r="D17" s="28"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="4">
         <v>7</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="25"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="38"/>
       <c r="H17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="41" t="s">
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="22" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="14" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="F2:F5"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="C19:G19"/>
@@ -1452,17 +1463,6 @@
     <mergeCell ref="F14:F17"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="G6:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1477,13 +1477,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.5625" customWidth="1"/>
-    <col min="7" max="7" width="45.5625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1506,8 +1506,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="26">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1516,59 +1516,59 @@
       <c r="C2" s="6">
         <v>25</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="30">
         <v>25</v>
       </c>
       <c r="E2" s="52">
         <v>1</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="55">
         <v>1</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="55" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="27"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
       <c r="B3" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="6">
         <v>35</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="43"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="27"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="53"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
       <c r="B4" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="6">
         <v>40</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="43"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="28"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="53"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
       <c r="B5" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="6">
         <v>50</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="44"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="D5" s="32"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="54"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="51">
         <v>2</v>
       </c>
@@ -1578,20 +1578,20 @@
       <c r="C6" s="12">
         <v>15</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="47">
         <v>15</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="47">
         <v>1</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="50">
         <v>11</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51"/>
       <c r="B7" s="20" t="s">
         <v>36</v>
@@ -1599,12 +1599,12 @@
       <c r="C7" s="12">
         <v>20</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="51"/>
       <c r="B8" s="20" t="s">
         <v>37</v>
@@ -1612,12 +1612,12 @@
       <c r="C8" s="12">
         <v>25</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="51"/>
       <c r="B9" s="20" t="s">
         <v>38</v>
@@ -1625,13 +1625,13 @@
       <c r="C9" s="12">
         <v>30</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="55">
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42">
         <v>3</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1640,60 +1640,60 @@
       <c r="C10" s="12">
         <v>50</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="47">
         <v>1</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="50">
         <v>13</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="50" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="55"/>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42"/>
       <c r="B11" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="12">
         <v>75</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="46"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="55"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="48"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42"/>
       <c r="B12" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="12">
         <v>90</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="46"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="55"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="48"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42"/>
       <c r="B13" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="12">
         <v>120</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="47"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="55">
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="49"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42">
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1702,114 +1702,128 @@
       <c r="C14" s="6">
         <v>25</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="30">
         <v>25</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="47">
         <v>4</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="47">
         <v>10</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="50" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="55"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
       <c r="B15" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C15" s="6">
         <v>35</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="55"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42"/>
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="6">
         <v>40</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="55"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42"/>
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C17" s="6">
         <v>50</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="D17" s="32"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="21">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="C19:G19"/>
@@ -1819,20 +1833,6 @@
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="F14:F17"/>
     <mergeCell ref="G14:G17"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="G6:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1843,17 +1843,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C119C-42F6-4CF6-ADF9-8275A6751DB2}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.5625" customWidth="1"/>
-    <col min="7" max="7" width="45.5625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="45.625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1876,138 +1876,138 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="31">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="30" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="15">
         <v>6</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="30">
         <v>25</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="30">
         <v>4</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="30">
         <v>2</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="36" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="31"/>
-      <c r="B3" s="27"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="15">
         <v>8</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="31"/>
-      <c r="B4" s="27"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="15">
         <v>10</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="31"/>
-      <c r="B5" s="28"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="15">
         <v>12</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="31">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="38"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="15">
         <v>12</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="30">
         <v>30</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="30">
         <v>2</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="30">
         <v>6</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="31"/>
-      <c r="B7" s="27"/>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="23"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="15">
         <v>16</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="31"/>
-      <c r="B8" s="27"/>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="15">
         <v>20</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="31"/>
-      <c r="B9" s="28"/>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="15">
         <v>24</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="31">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
         <v>3</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="15">
         <v>10</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="30">
         <v>20</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="30">
         <v>1</v>
       </c>
       <c r="F10" s="4">
@@ -2017,14 +2017,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="31"/>
-      <c r="B11" s="27"/>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="15">
         <v>11</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="4">
         <v>11</v>
       </c>
@@ -2032,14 +2032,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="31"/>
-      <c r="B12" s="27"/>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="15">
         <v>12</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="4">
         <v>10</v>
       </c>
@@ -2047,14 +2047,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="31"/>
-      <c r="B13" s="28"/>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="15">
         <v>13</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="4">
         <v>9</v>
       </c>
@@ -2062,81 +2062,81 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="31">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
         <v>4</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="15">
         <v>48</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="30">
         <v>1</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="30">
         <v>12</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="31"/>
-      <c r="B15" s="27"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="15">
         <v>60</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="31"/>
-      <c r="B16" s="27"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="15">
         <v>72</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="31"/>
-      <c r="B17" s="28"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="37"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="15">
         <v>84</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="38"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -2174,6 +2174,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
@@ -2190,14 +2198,6 @@
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="G2:G5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2212,13 +2212,13 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.5625" customWidth="1"/>
-    <col min="7" max="7" width="45.5625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2241,8 +2241,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="26">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
@@ -2252,8 +2252,8 @@
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="27"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2261,8 +2261,8 @@
       <c r="F3" s="6"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2270,8 +2270,8 @@
       <c r="F4" s="6"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="28"/>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2279,7 +2279,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="51">
         <v>2</v>
       </c>
@@ -2290,7 +2290,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="51"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2299,7 +2299,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="51"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2308,7 +2308,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="51"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -2317,8 +2317,8 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="55">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42">
         <v>3</v>
       </c>
       <c r="B10" s="9"/>
@@ -2328,8 +2328,8 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="55"/>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -2337,8 +2337,8 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="55"/>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2346,8 +2346,8 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="55"/>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="42"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2355,8 +2355,8 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="55">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="42">
         <v>4</v>
       </c>
       <c r="B14" s="9"/>
@@ -2366,8 +2366,8 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="55"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2375,8 +2375,8 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="55"/>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2384,8 +2384,8 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="55"/>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="42"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -2393,46 +2393,46 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="13"/>
     </row>
   </sheetData>

--- a/기획문서/UDP_PlayerWeapons.xlsx
+++ b/기획문서/UDP_PlayerWeapons.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubProject\UDP\기획문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C\UDP\기획문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF8C3B1-0CE2-475D-B95F-37C73DB2CA23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805C105B-7D19-43A1-8ACA-CC0762F104F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="근거리" sheetId="4" r:id="rId1"/>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이동 중 10거리 이내의 적 포착 시 추적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>플레이어 주변 20거리 이내 모든 적 포탄의 이동을 멈춥니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,32 +128,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이동 중 8거리 이내의 적 포착 시 추적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동 중 12거리 이내의 적 포착 시 추적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발 범위 14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>근접 유도 어뢰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>히트 스캔, 관통, 발사 선딜레이 2초
 선딜레이: 발사 입력 시 방향을 기억하고, 선딜레이 시간이 끝날 때, 기억한 방향으로 실제 포탄을 발사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발 범위 13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발 범위 15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -321,15 +297,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이동 중 10거리 이내의 적 포착 시 폭발, 폭발 범위 12(반지름) 폭발에 휘말린 적은 폭발 방향으로 밀려남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동 중 반지름 6거리 이내의 적 포착 시 추적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>타오르는 힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 중 24거리 이내의 적 포착 시 추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 중 반지름 20거리 이내의 적 포착 시 추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 중 28거리 이내의 적 포착 시 추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 중 32거리 이내의 적 포착 시 추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발 범위 45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발 범위 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 중 20거리 이내의 적 포착 시 폭발, 폭발 범위 35(반지름) 폭발에 휘말린 적은 폭발 방향으로 밀려남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발 범위 40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,6 +632,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,15 +675,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,23 +686,47 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -702,45 +741,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1092,13 +1092,13 @@
       <selection activeCell="C21" sqref="C21:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="50.625" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="50.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1121,334 +1121,323 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>54</v>
+      <c r="B2" s="26" t="s">
+        <v>48</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="26">
         <v>20</v>
       </c>
       <c r="E2" s="4">
         <v>5</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="26">
         <v>3</v>
       </c>
-      <c r="G2" s="36" t="s">
-        <v>55</v>
+      <c r="G2" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="4">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="4">
         <v>6</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="4">
         <v>5</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="4">
         <v>7</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="37"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="4">
         <v>6</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="4">
         <v>8</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="38"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+      <c r="F5" s="28"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="30">
+      <c r="B6" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="26">
         <v>2</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="26">
         <v>25</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="26">
         <v>5</v>
       </c>
       <c r="F6" s="4">
         <v>6</v>
       </c>
-      <c r="G6" s="36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="G6" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="31"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="4">
         <v>4</v>
       </c>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="31"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="11">
         <v>3</v>
       </c>
-      <c r="G9" s="41"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="31">
         <v>3</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="30">
+      <c r="B10" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="26">
         <v>10</v>
       </c>
       <c r="D10" s="4">
         <v>20</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="26">
         <v>1</v>
       </c>
       <c r="F10" s="4">
         <v>6</v>
       </c>
-      <c r="G10" s="33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
+      <c r="G10" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="31"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="4">
         <v>30</v>
       </c>
-      <c r="E11" s="31"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="G11" s="34"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
+      <c r="G11" s="39"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="31"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="4">
         <v>40</v>
       </c>
-      <c r="E12" s="31"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="4">
         <v>4</v>
       </c>
-      <c r="G12" s="34"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
+      <c r="G12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="31"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="11">
         <v>50</v>
       </c>
-      <c r="E13" s="32"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="35"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="31">
         <v>4</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>60</v>
+      <c r="B14" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="26">
         <v>20</v>
       </c>
       <c r="E14" s="4">
         <v>4</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="26">
         <v>8</v>
       </c>
-      <c r="G14" s="36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="31"/>
+      <c r="G14" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="31"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="4">
         <v>6</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="4">
         <v>5</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="31"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="31"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="4">
         <v>7</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="4">
         <v>6</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="32"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="31"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="4">
         <v>8</v>
       </c>
-      <c r="D17" s="32"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="4">
         <v>7</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="38"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="25"/>
       <c r="H17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
+        <v>59</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
+        <v>64</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="F2:F5"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="C19:G19"/>
@@ -1463,6 +1452,17 @@
     <mergeCell ref="F14:F17"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="G6:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1477,13 +1477,13 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="45.625" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="45.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1506,310 +1506,324 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6">
         <v>25</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="26">
         <v>25</v>
       </c>
       <c r="E2" s="52">
         <v>1</v>
       </c>
-      <c r="F2" s="55">
+      <c r="F2" s="42">
         <v>1</v>
       </c>
-      <c r="G2" s="55" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
+      <c r="G2" s="42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="27"/>
       <c r="B3" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C3" s="6">
         <v>35</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="53"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="43"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="27"/>
       <c r="B4" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C4" s="6">
         <v>40</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="53"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="43"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="28"/>
       <c r="B5" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C5" s="6">
         <v>50</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="54"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="28"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="44"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="51">
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C6" s="12">
         <v>15</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="45">
         <v>15</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="45">
         <v>1</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="48">
         <v>11</v>
       </c>
-      <c r="G6" s="50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="48" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="51"/>
       <c r="B7" s="20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C7" s="12">
         <v>20</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="51"/>
       <c r="B8" s="20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C8" s="12">
         <v>25</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="51"/>
       <c r="B9" s="20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C9" s="12">
         <v>30</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="55">
         <v>3</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C10" s="12">
         <v>50</v>
       </c>
-      <c r="D10" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="47">
+      <c r="D10" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="45">
         <v>1</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="48">
         <v>13</v>
       </c>
-      <c r="G10" s="50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
+      <c r="G10" s="48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="55"/>
       <c r="B11" s="10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C11" s="12">
         <v>75</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="48"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="46"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="55"/>
       <c r="B12" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C12" s="12">
         <v>90</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="48"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="46"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="55"/>
       <c r="B13" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C13" s="12">
         <v>120</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="49"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="55">
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C14" s="6">
         <v>25</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="26">
         <v>25</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="45">
         <v>4</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="45">
         <v>10</v>
       </c>
-      <c r="G14" s="50" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
+      <c r="G14" s="48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="55"/>
       <c r="B15" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C15" s="6">
         <v>35</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="55"/>
       <c r="B16" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C16" s="6">
         <v>40</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="55"/>
       <c r="B17" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C17" s="6">
         <v>50</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="28"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
+        <v>44</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
+        <v>45</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
       <c r="H21" s="21">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="E6:E9"/>
@@ -1819,20 +1833,6 @@
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="G6:G9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1844,16 +1844,16 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G14" sqref="G14:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="45.625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="45.58203125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1876,267 +1876,267 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>21</v>
+      <c r="B2" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="15">
         <v>6</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="26">
         <v>25</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="26">
         <v>4</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="26">
         <v>2</v>
       </c>
-      <c r="G2" s="36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="31"/>
+      <c r="G2" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="31"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="15">
         <v>8</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="37"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="31"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="31"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="15">
         <v>10</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="37"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="32"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="31"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="15">
         <v>12</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="38"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>26</v>
+      <c r="B6" s="26" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="15">
         <v>12</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="26">
         <v>30</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="26">
         <v>2</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="26">
         <v>6</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="31"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="31"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="15">
         <v>16</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="31"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="31"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="15">
         <v>20</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="32"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="31"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="15">
         <v>24</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="31">
         <v>3</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>19</v>
+      <c r="B10" s="26" t="s">
+        <v>18</v>
       </c>
       <c r="C10" s="15">
         <v>10</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="26">
         <v>20</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="26">
         <v>1</v>
       </c>
       <c r="F10" s="4">
         <v>12</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="31"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="31"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="15">
         <v>11</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="4">
         <v>11</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="31"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="31"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="15">
         <v>12</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="4">
         <v>10</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="32"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="31"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="15">
         <v>13</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="4">
         <v>9</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="31">
         <v>4</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>17</v>
+      <c r="B14" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="C14" s="15">
         <v>48</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="30">
+      <c r="D14" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="26">
         <v>1</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="26">
         <v>12</v>
       </c>
-      <c r="G14" s="36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="31"/>
+      <c r="G14" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="31"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="15">
         <v>60</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="31"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="31"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="15">
         <v>72</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="32"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="31"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="15">
         <v>84</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="38"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>14</v>
       </c>
       <c r="C20" s="60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="61"/>
       <c r="E20" s="61"/>
@@ -2154,7 +2154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
@@ -2174,14 +2174,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
@@ -2198,6 +2190,14 @@
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="G2:G5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2212,13 +2212,13 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="45.625" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="45.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2241,8 +2241,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
@@ -2252,8 +2252,8 @@
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="27"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2261,8 +2261,8 @@
       <c r="F3" s="6"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="27"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2270,8 +2270,8 @@
       <c r="F4" s="6"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="28"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2279,7 +2279,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="51">
         <v>2</v>
       </c>
@@ -2290,7 +2290,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="51"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2299,7 +2299,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="51"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -2308,7 +2308,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="51"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -2317,8 +2317,8 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="55">
         <v>3</v>
       </c>
       <c r="B10" s="9"/>
@@ -2328,8 +2328,8 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="55"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -2337,8 +2337,8 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="55"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2346,8 +2346,8 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="55"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2355,8 +2355,8 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="55">
         <v>4</v>
       </c>
       <c r="B14" s="9"/>
@@ -2366,8 +2366,8 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="55"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2375,8 +2375,8 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="55"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2384,8 +2384,8 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="55"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -2393,46 +2393,46 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="13"/>
     </row>
   </sheetData>

--- a/기획문서/UDP_PlayerWeapons.xlsx
+++ b/기획문서/UDP_PlayerWeapons.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C\UDP\기획문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805C105B-7D19-43A1-8ACA-CC0762F104F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96854BAD-0885-45C1-AC10-28EEF6846970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
   </bookViews>
   <sheets>
-    <sheet name="근거리" sheetId="4" r:id="rId1"/>
-    <sheet name="중거리" sheetId="3" r:id="rId2"/>
-    <sheet name="원거리" sheetId="1" r:id="rId3"/>
-    <sheet name="temp" sheetId="2" r:id="rId4"/>
+    <sheet name="TotalTable" sheetId="5" r:id="rId1"/>
+    <sheet name="근거리" sheetId="4" r:id="rId2"/>
+    <sheet name="중거리" sheetId="3" r:id="rId3"/>
+    <sheet name="원거리" sheetId="1" r:id="rId4"/>
+    <sheet name="temp" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="121">
   <si>
     <t xml:space="preserve">이름 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +331,190 @@
   </si>
   <si>
     <t>폭발 범위 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탄 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_weapon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_weapon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_weapon_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_weapon_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_skill_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_skill_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부식탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사슬 갈고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탄 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발당 피해량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본이 되는 산탄 형태의 주포입니다. 레벨이 높아질수록 피해량과 발사되는 포탄의 수가 증가합니다.</t>
+  </si>
+  <si>
+    <t>적의 장갑과 외부 보호 장치를 부식시키는 탄환을 발사하는 주포입니다. 적중한 적에게 가하는 피해량이 3초 동안 50% 증가합니다.</t>
+  </si>
+  <si>
+    <t>특이사항/설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 두 번의 데미지를 주는 탄환을 발사하는 주포입니다. 적중한 탄환은 2초 후 한 번 더 폭발하여, 탄환 피해량의 20%/30%/40%/50%만큼 추가 피해를 입힙니다.</t>
+  </si>
+  <si>
+    <t>플레이어가 바라보는 방향으로 사슬 갈고리를 던져, 적중 시 플레이어가 60의 속도로 적중한 적에게 이동합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4+(무기레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+(무기레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_weapon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_weapon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_weapon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_weapon_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_weapon_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_weapon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_weapon_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_weapon_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_skill_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_skill_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_skill_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_skill_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음에 사용하는 주포의 쿨타임을 1회 제거합니다.</t>
+  </si>
+  <si>
+    <t>3초 동안 적의 공격을 막아주는 방어막을 생성합니다.</t>
+  </si>
+  <si>
+    <t>5초 동안 적에게 입힌 피해만큼 내구도를 회복합니다.</t>
+  </si>
+  <si>
+    <t>최대 체력의 20%를 회복합니다.</t>
+  </si>
+  <si>
+    <t>긴급 탈출을 사용하는 동안 연료를 사용하지 않습니다</t>
+  </si>
+  <si>
+    <t>이동속도가 5초 동안 최고속도에 도달합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨타임(초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3+(무기레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 6 7 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 5 4 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+무기레벨*10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,7 +747,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -632,6 +817,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -641,13 +865,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -656,58 +874,52 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -716,33 +928,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -751,6 +936,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1085,11 +1297,418 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684FD040-9A58-4E0F-8A25-298CFB649FAF}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="4" width="8.58203125" customWidth="1"/>
+    <col min="5" max="7" width="10.58203125" customWidth="1"/>
+    <col min="8" max="8" width="8.58203125" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="63">
+        <v>20</v>
+      </c>
+      <c r="H2" s="63">
+        <v>3</v>
+      </c>
+      <c r="I2" s="63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="63">
+        <v>5</v>
+      </c>
+      <c r="F3" s="63">
+        <v>2</v>
+      </c>
+      <c r="G3" s="63">
+        <v>25</v>
+      </c>
+      <c r="H3" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="I3" s="63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="63" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="63">
+        <v>1</v>
+      </c>
+      <c r="F4" s="63">
+        <v>10</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="63">
+        <v>20</v>
+      </c>
+      <c r="H5" s="63">
+        <v>8</v>
+      </c>
+      <c r="I5" s="63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="70">
+        <v>12</v>
+      </c>
+      <c r="D16" s="70" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="70">
+        <v>15</v>
+      </c>
+      <c r="D17" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="70">
+        <v>20</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="70">
+        <v>15</v>
+      </c>
+      <c r="D19" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="70">
+        <v>12</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="70">
+        <v>12</v>
+      </c>
+      <c r="D21" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9994DB1-7A88-429D-9CFE-E67689A4F62A}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1122,262 +1741,262 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="26">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="30" t="s">
         <v>48</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="30">
         <v>20</v>
       </c>
       <c r="E2" s="4">
         <v>5</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="30">
         <v>3</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="36" t="s">
         <v>49</v>
       </c>
       <c r="H2" s="22"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="4">
         <v>4</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="4">
         <v>6</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="24"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="37"/>
       <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="4">
         <v>5</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="4">
         <v>7</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="24"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="4">
         <v>6</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="4">
         <v>8</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="25"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="31">
+      <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="30">
         <v>2</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="30">
         <v>25</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="30">
         <v>5</v>
       </c>
       <c r="F6" s="4">
         <v>6</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="36" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="31"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="G7" s="29"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="31"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="4">
         <v>4</v>
       </c>
-      <c r="G8" s="29"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="31"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="11">
         <v>3</v>
       </c>
-      <c r="G9" s="30"/>
+      <c r="G9" s="41"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="31">
+      <c r="A10" s="23">
         <v>3</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="30">
         <v>10</v>
       </c>
       <c r="D10" s="4">
         <v>20</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="30">
         <v>1</v>
       </c>
       <c r="F10" s="4">
         <v>6</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="31"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="4">
         <v>30</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="G11" s="39"/>
+      <c r="G11" s="34"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="31"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="4">
         <v>40</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="4">
         <v>4</v>
       </c>
-      <c r="G12" s="39"/>
+      <c r="G12" s="34"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="31"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="11">
         <v>50</v>
       </c>
-      <c r="E13" s="28"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="40"/>
+      <c r="G13" s="35"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="31">
+      <c r="A14" s="23">
         <v>4</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="30" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="30">
         <v>20</v>
       </c>
       <c r="E14" s="4">
         <v>4</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="30">
         <v>8</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="36" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="31"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="4">
         <v>6</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="4">
         <v>5</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="24"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="31"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="4">
         <v>7</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="4">
         <v>6</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="24"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="31"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="4">
         <v>8</v>
       </c>
-      <c r="D17" s="28"/>
+      <c r="D17" s="32"/>
       <c r="E17" s="4">
         <v>7</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="25"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="38"/>
       <c r="H17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="22" t="s">
         <v>58</v>
       </c>
@@ -1389,13 +2008,13 @@
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1407,13 +2026,13 @@
       <c r="B20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="14" t="s">
         <v>61</v>
       </c>
@@ -1425,19 +2044,30 @@
       <c r="B21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="14" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="F2:F5"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="C19:G19"/>
@@ -1452,29 +2082,18 @@
     <mergeCell ref="F14:F17"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="G6:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EF9496-DE58-419F-893B-F291F26CE53B}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C21" sqref="C21:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1507,7 +2126,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="26">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1516,57 +2135,57 @@
       <c r="C2" s="6">
         <v>25</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="30">
         <v>25</v>
       </c>
       <c r="E2" s="52">
         <v>1</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="55">
         <v>1</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="55" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="27"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="6">
         <v>35</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="43"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="27"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="6">
         <v>40</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="43"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="53"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="28"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="6">
         <v>50</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="44"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="51">
@@ -1578,16 +2197,16 @@
       <c r="C6" s="12">
         <v>15</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="47">
         <v>15</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="47">
         <v>1</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="50">
         <v>11</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="50" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1599,10 +2218,10 @@
       <c r="C7" s="12">
         <v>20</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="51"/>
@@ -1612,10 +2231,10 @@
       <c r="C8" s="12">
         <v>25</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="51"/>
@@ -1625,13 +2244,13 @@
       <c r="C9" s="12">
         <v>30</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="55">
+      <c r="A10" s="42">
         <v>3</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1640,60 +2259,60 @@
       <c r="C10" s="12">
         <v>50</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="47">
         <v>1</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="50">
         <v>13</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="50" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="55"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="12">
         <v>75</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="46"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="55"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="12">
         <v>90</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="46"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="55"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="12">
         <v>120</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="47"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="55">
+      <c r="A14" s="42">
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1702,57 +2321,57 @@
       <c r="C14" s="6">
         <v>25</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="30">
         <v>25</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="47">
         <v>4</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="47">
         <v>10</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="50" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="55"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="6">
         <v>35</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="55"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="6">
         <v>40</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="55"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="6">
         <v>50</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
@@ -1761,13 +2380,13 @@
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1779,13 +2398,13 @@
       <c r="B20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="7">
         <v>20</v>
       </c>
@@ -1797,19 +2416,33 @@
       <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
       <c r="H21" s="21">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="C19:G19"/>
@@ -1819,32 +2452,18 @@
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="F14:F17"/>
     <mergeCell ref="G14:G17"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="G6:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C119C-42F6-4CF6-ADF9-8275A6751DB2}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1877,78 +2496,78 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="31">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="15">
         <v>6</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="30">
         <v>25</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="30">
         <v>4</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="30">
         <v>2</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="36" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="31"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="15">
         <v>8</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="24"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="31"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="15">
         <v>10</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="24"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="37"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="31"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="15">
         <v>12</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="25"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="38"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="31">
+      <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="15">
         <v>12</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="30">
         <v>30</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="30">
         <v>2</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="30">
         <v>6</v>
       </c>
       <c r="G6" s="16" t="s">
@@ -1956,58 +2575,58 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="31"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="15">
         <v>16</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="31"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="15">
         <v>20</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="31"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="15">
         <v>24</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="17" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="31">
+      <c r="A10" s="23">
         <v>3</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="15">
         <v>10</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="30">
         <v>20</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="30">
         <v>1</v>
       </c>
       <c r="F10" s="4">
@@ -2018,13 +2637,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="31"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="15">
         <v>11</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="4">
         <v>11</v>
       </c>
@@ -2033,13 +2652,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="31"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="15">
         <v>12</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="4">
         <v>10</v>
       </c>
@@ -2048,13 +2667,13 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="31"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="15">
         <v>13</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
       <c r="F13" s="4">
         <v>9</v>
       </c>
@@ -2063,60 +2682,60 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="31">
+      <c r="A14" s="23">
         <v>4</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="15">
         <v>48</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="30">
         <v>1</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="30">
         <v>12</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="36" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="31"/>
-      <c r="B15" s="27"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="15">
         <v>60</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="24"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="31"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="15">
         <v>72</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="24"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="31"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="15">
         <v>84</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="25"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
@@ -2125,13 +2744,13 @@
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="3" t="s">
         <v>21</v>
       </c>
@@ -2174,6 +2793,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
@@ -2190,21 +2817,13 @@
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="G2:G5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E27E35B-327B-4FE1-A32E-4807EFE5B29C}">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -2242,7 +2861,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="26">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
@@ -2253,7 +2872,7 @@
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="27"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2262,7 +2881,7 @@
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="27"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2271,7 +2890,7 @@
       <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="28"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2318,7 +2937,7 @@
       <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="55">
+      <c r="A10" s="42">
         <v>3</v>
       </c>
       <c r="B10" s="9"/>
@@ -2329,7 +2948,7 @@
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="55"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -2338,7 +2957,7 @@
       <c r="G11" s="9"/>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="55"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2347,7 +2966,7 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="55"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2356,7 +2975,7 @@
       <c r="G13" s="9"/>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="55">
+      <c r="A14" s="42">
         <v>4</v>
       </c>
       <c r="B14" s="9"/>
@@ -2367,7 +2986,7 @@
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="55"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2376,7 +2995,7 @@
       <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="55"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2385,7 +3004,7 @@
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="55"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -2400,13 +3019,13 @@
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="3" t="s">
         <v>21</v>
       </c>
@@ -2416,11 +3035,11 @@
         <v>11</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
@@ -2428,11 +3047,11 @@
         <v>10</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="13"/>
     </row>
   </sheetData>

--- a/기획문서/UDP_PlayerWeapons.xlsx
+++ b/기획문서/UDP_PlayerWeapons.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C\UDP\기획문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubProject\UDP\기획문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96854BAD-0885-45C1-AC10-28EEF6846970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DECF4C-D0EF-4E4F-BC4D-E5EFE5790275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="TotalTable" sheetId="5" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="150">
   <si>
     <t xml:space="preserve">이름 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,12 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">이동속도를 5초 동안 최고속도에 도달합니다.
-긴급 탈출을 사용하는 동안 연료를 사용하지 않습니다
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최대 체력의 20%를 회복합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -423,14 +417,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4+(무기레벨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2+(무기레벨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>middle_weapon_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -491,30 +477,154 @@
     <t>최대 체력의 20%를 회복합니다.</t>
   </si>
   <si>
-    <t>긴급 탈출을 사용하는 동안 연료를 사용하지 않습니다</t>
-  </si>
-  <si>
-    <t>이동속도가 5초 동안 최고속도에 도달합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>쿨타임(초)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3+(무기레벨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 6 7 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 5 4 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10+무기레벨*10</t>
+    <t>이동속도를 5초 동안 최고속도에 도달합니다. 긴급 탈출을 사용하는 동안 연료를 사용하지 않습니다</t>
+  </si>
+  <si>
+    <t>이동속도를 5초 동안 최고속도에 도달합니다. 긴급 탈출을 사용하는 동안 연료를 사용하지 않습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 주변 20거리 이내 모든 적 포탄의 이동을 멈춥니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크 매터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철갑소이탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 유도 어뢰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP 자폭탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라즈마 광선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4+(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3+(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+(레벨)*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25/35/40/50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50/75/90/120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 포탄을 공격시 공격당 1발씩 공격 DPM 4레벨 기준 초당 50</t>
+  </si>
+  <si>
+    <t>조준한 방향으로 암흑물질을 발사. 적 적중 시, 반지름 20범위 이내의 적들을 암흑물질의 중심으로 끌어당김. 적을 끌어당긴 후 암흑물질은 그 자리에 4초동안 남아있으며, 주변 반지름 20범위 이내의 적들의 이동속도를 최대 15%/20%/25%/30% 둔화. 공중에 남아있는 암흑 물질은 빨간 버튼으로 폭발시킬 수 있다. 최대 사거리는 50이며, 적에게 적중하지 않더라도 최대 사거리에서 발동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크 매터에 스킬포인트가 없다면 사용 불가능 다크 매터와의 연계스킬 다크 매터를 터뜨려서 적에게 피해를 입힘 범위 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4점사 공격을 4번 공격 DPM : 4레벨 기준 초당 200 사거리는 기본 공격 사거리와 동일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8+(레벨*4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4+(레벨*2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9+(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36+(레벨*12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히트 스캔, 관통, 발사 선딜레이 2초 (선딜레이: 발사 입력 시 방향을 기억하고, 선딜레이 시간이 끝날 때, 기억한 방향으로 실제 포탄을 발사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탄이 0.2초 간격으로 2발씩 발사, 적중한 대상에게 4초동안 받는 피해량이 20% 증가하는 디버프 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 중 반지름 16+(레벨*4) 거리 이내의 적 포착 시 추적</t>
+  </si>
+  <si>
+    <t>이동 중 20 거리 이내의 적 포착 시 폭발, 폭발 범위 30+(레벨*5). 폭발에 휘말린 적은 폭발 방향으로 밀려남.</t>
+  </si>
+  <si>
+    <t>13-(레벨)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,7 +857,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -817,6 +927,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -839,15 +982,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -856,23 +990,47 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -889,45 +1047,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -937,32 +1056,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1298,404 +1402,536 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684FD040-9A58-4E0F-8A25-298CFB649FAF}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H16" sqref="H16:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="15.58203125" customWidth="1"/>
-    <col min="3" max="4" width="8.58203125" customWidth="1"/>
-    <col min="5" max="7" width="10.58203125" customWidth="1"/>
-    <col min="8" max="8" width="8.58203125" customWidth="1"/>
-    <col min="9" max="9" width="15.58203125" customWidth="1"/>
+    <col min="1" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="68">
+        <v>20</v>
+      </c>
+      <c r="H3" s="68">
         <v>3</v>
       </c>
-      <c r="C1" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="64" t="s">
+      <c r="I3" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="68">
+        <v>5</v>
+      </c>
+      <c r="F4" s="68">
+        <v>2</v>
+      </c>
+      <c r="G4" s="68">
+        <v>25</v>
+      </c>
+      <c r="H4" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="68">
+        <v>1</v>
+      </c>
+      <c r="F5" s="68">
+        <v>10</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="68">
+        <v>20</v>
+      </c>
+      <c r="H6" s="68">
         <v>8</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="I6" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="68">
+        <v>1</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="68">
+        <v>25</v>
+      </c>
+      <c r="H7" s="68">
+        <v>1</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="68">
+        <v>1</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="69">
+        <v>15</v>
+      </c>
+      <c r="H8" s="68">
+        <v>11</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="68">
+        <v>13</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="68">
+        <v>4</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="68">
+        <v>25</v>
+      </c>
+      <c r="H10" s="68">
+        <v>10</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="69">
+        <v>4</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="68">
+        <v>25</v>
+      </c>
+      <c r="H11" s="68">
+        <v>2</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="68">
+        <v>2</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="68">
+        <v>30</v>
+      </c>
+      <c r="H12" s="68">
+        <v>6</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="K12" s="67"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="E13" s="68">
+        <v>1</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="68">
+        <v>20</v>
+      </c>
+      <c r="H13" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="67"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="68">
+        <v>12</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="67"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="67"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="I1" s="65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="G2" s="63">
+      <c r="B17" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="24">
+        <v>12</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="24">
+        <v>15</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="24">
         <v>20</v>
       </c>
-      <c r="H2" s="63">
-        <v>3</v>
-      </c>
-      <c r="I2" s="63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="63">
-        <v>5</v>
-      </c>
-      <c r="F3" s="63">
-        <v>2</v>
-      </c>
-      <c r="G3" s="63">
-        <v>25</v>
-      </c>
-      <c r="H3" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3" s="63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="63">
-        <v>1</v>
-      </c>
-      <c r="F4" s="63">
-        <v>10</v>
-      </c>
-      <c r="G4" s="63" t="s">
-        <v>120</v>
-      </c>
-      <c r="H4" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="I4" s="63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="63" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="F5" s="63" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="63">
-        <v>20</v>
-      </c>
-      <c r="H5" s="63">
-        <v>8</v>
-      </c>
-      <c r="I5" s="63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="63" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="63" t="s">
+      <c r="D20" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="63" t="s">
+      <c r="B21" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="24">
+        <v>15</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="70">
+      <c r="B22" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="24">
         <v>12</v>
       </c>
-      <c r="D16" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="70">
-        <v>15</v>
-      </c>
-      <c r="D17" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="70" t="s">
+      <c r="D22" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="70">
-        <v>20</v>
-      </c>
-      <c r="D18" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A19" s="70" t="s">
+      <c r="B23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="24">
+        <v>12</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="70" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="70">
-        <v>15</v>
-      </c>
-      <c r="D19" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="70">
-        <v>12</v>
-      </c>
-      <c r="D20" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A21" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="70">
-        <v>12</v>
-      </c>
-      <c r="D21" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1707,17 +1943,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9994DB1-7A88-429D-9CFE-E67689A4F62A}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
-    <col min="7" max="7" width="50.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1740,334 +1976,323 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="30">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>48</v>
+      <c r="B2" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="29">
         <v>20</v>
       </c>
       <c r="E2" s="4">
         <v>5</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="29">
         <v>3</v>
       </c>
-      <c r="G2" s="36" t="s">
-        <v>49</v>
+      <c r="G2" s="26" t="s">
+        <v>48</v>
       </c>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="4">
         <v>4</v>
       </c>
-      <c r="D3" s="31"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="4">
         <v>6</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="37"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="4">
         <v>5</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="4">
         <v>7</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="37"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="4">
         <v>6</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="4">
         <v>8</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="38"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="23">
+      <c r="F5" s="31"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34">
         <v>2</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="30">
+      <c r="B6" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="29">
         <v>2</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="29">
         <v>25</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <v>5</v>
       </c>
       <c r="F6" s="4">
         <v>6</v>
       </c>
-      <c r="G6" s="36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="23"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="G6" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="23"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="4">
         <v>4</v>
       </c>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="23"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="G8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="11">
         <v>3</v>
       </c>
-      <c r="G9" s="41"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="23">
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34">
         <v>3</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="30">
+      <c r="B10" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="29">
         <v>10</v>
       </c>
       <c r="D10" s="4">
         <v>20</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="29">
         <v>1</v>
       </c>
       <c r="F10" s="4">
         <v>6</v>
       </c>
-      <c r="G10" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="23"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
+      <c r="G10" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="4">
         <v>30</v>
       </c>
-      <c r="E11" s="31"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="G11" s="34"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="23"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
+      <c r="G11" s="42"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="4">
         <v>40</v>
       </c>
-      <c r="E12" s="31"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="4">
         <v>4</v>
       </c>
-      <c r="G12" s="34"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="23"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
+      <c r="G12" s="42"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="11">
         <v>50</v>
       </c>
-      <c r="E13" s="32"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="35"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="23">
+      <c r="G13" s="43"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34">
         <v>4</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>54</v>
+      <c r="B14" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="29">
         <v>20</v>
       </c>
       <c r="E14" s="4">
         <v>4</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="29">
         <v>8</v>
       </c>
-      <c r="G14" s="36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="23"/>
-      <c r="B15" s="31"/>
+      <c r="G14" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="4">
         <v>6</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="4">
         <v>5</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="23"/>
-      <c r="B16" s="31"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="4">
         <v>7</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="4">
         <v>6</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="23"/>
-      <c r="B17" s="32"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="4">
         <v>8</v>
       </c>
-      <c r="D17" s="32"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="4">
         <v>7</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="38"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="28"/>
       <c r="H17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="44" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="39" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="14" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="F2:F5"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="C19:G19"/>
@@ -2082,6 +2307,17 @@
     <mergeCell ref="F14:F17"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="G6:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2092,17 +2328,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EF9496-DE58-419F-893B-F291F26CE53B}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
-    <col min="7" max="7" width="45.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2125,8 +2361,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="30">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2135,60 +2371,60 @@
       <c r="C2" s="6">
         <v>25</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="29">
         <v>25</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="55">
         <v>1</v>
       </c>
-      <c r="F2" s="55">
+      <c r="F2" s="45">
         <v>1</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="45" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="31"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30"/>
       <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="6">
         <v>35</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="53"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="46"/>
       <c r="F3" s="56"/>
-      <c r="G3" s="53"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="31"/>
+      <c r="G3" s="46"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
       <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="6">
         <v>40</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="53"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="56"/>
-      <c r="G4" s="53"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="32"/>
+      <c r="G4" s="46"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
       <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="6">
         <v>50</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="54"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="57"/>
-      <c r="G5" s="54"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="51">
+      <c r="G5" s="47"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54">
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -2197,60 +2433,60 @@
       <c r="C6" s="12">
         <v>15</v>
       </c>
-      <c r="D6" s="47">
+      <c r="D6" s="48">
         <v>15</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="48">
         <v>1</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="51">
         <v>11</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="51"/>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="54"/>
       <c r="B7" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="12">
         <v>20</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="51"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
       <c r="B8" s="20" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="12">
         <v>25</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="51"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
       <c r="B9" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="12">
         <v>30</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="42">
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="58">
         <v>3</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -2259,60 +2495,60 @@
       <c r="C10" s="12">
         <v>50</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="48">
         <v>1</v>
       </c>
-      <c r="F10" s="50">
+      <c r="F10" s="51">
         <v>13</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="42"/>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58"/>
       <c r="B11" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="12">
         <v>75</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="48"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="42"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="49"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="58"/>
       <c r="B12" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="12">
         <v>90</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="48"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="42"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="49"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
       <c r="B13" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="12">
         <v>120</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="49"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="42">
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="50"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="58">
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -2321,114 +2557,128 @@
       <c r="C14" s="6">
         <v>25</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="29">
         <v>25</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="48">
         <v>4</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="48">
         <v>10</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="42"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="58"/>
       <c r="B15" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="6">
         <v>35</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="42"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="58"/>
       <c r="B16" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="6">
         <v>40</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="42"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="58"/>
       <c r="B17" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="6">
         <v>50</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D17" s="31"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
+      <c r="C20" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="46"/>
+      <c r="C21" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="21">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="F2:F5"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="E6:E9"/>
@@ -2438,20 +2688,6 @@
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="G10:G13"/>
     <mergeCell ref="G6:G9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2462,17 +2698,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C119C-42F6-4CF6-ADF9-8275A6751DB2}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
-    <col min="7" max="7" width="45.58203125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="45.625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2495,312 +2731,304 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="23">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="15">
         <v>6</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="29">
         <v>25</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="29">
         <v>4</v>
       </c>
-      <c r="F2" s="30">
+      <c r="F2" s="29">
         <v>2</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="G2" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="23"/>
-      <c r="B3" s="31"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="15">
         <v>8</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="37"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="23"/>
-      <c r="B4" s="31"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="15">
         <v>10</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="37"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="23"/>
-      <c r="B5" s="32"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="15">
         <v>12</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="38"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="23">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34">
         <v>2</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="15">
         <v>12</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="29">
         <v>30</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="29">
         <v>2</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="29">
         <v>6</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="23"/>
-      <c r="B7" s="31"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="15">
         <v>16</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="23"/>
-      <c r="B8" s="31"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="15">
         <v>20</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="23"/>
-      <c r="B9" s="32"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="15">
         <v>24</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="23">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34">
         <v>3</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="15">
         <v>10</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="29">
         <v>20</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="29">
         <v>1</v>
       </c>
       <c r="F10" s="4">
         <v>12</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="23"/>
-      <c r="B11" s="31"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="15">
         <v>11</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="4">
         <v>11</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="23"/>
-      <c r="B12" s="31"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="15">
         <v>12</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="4">
         <v>10</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="23"/>
-      <c r="B13" s="32"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="15">
         <v>13</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="4">
         <v>9</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="23">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34">
         <v>4</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="15">
         <v>48</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="29">
         <v>1</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="29">
         <v>12</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="23"/>
-      <c r="B15" s="31"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="15">
         <v>60</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="23"/>
-      <c r="B16" s="31"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="15">
         <v>72</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="23"/>
-      <c r="B17" s="32"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="15">
         <v>84</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="38"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="62"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="65"/>
       <c r="H20" s="14">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="62"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="14">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
@@ -2817,6 +3045,14 @@
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="G14:G17"/>
     <mergeCell ref="G2:G5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2831,13 +3067,13 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
-    <col min="7" max="7" width="45.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2860,8 +3096,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="30">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
@@ -2871,8 +3107,8 @@
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="31"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2880,8 +3116,8 @@
       <c r="F3" s="6"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="31"/>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2889,8 +3125,8 @@
       <c r="F4" s="6"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="32"/>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2898,8 +3134,8 @@
       <c r="F5" s="6"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="51">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54">
         <v>2</v>
       </c>
       <c r="B6" s="2"/>
@@ -2909,8 +3145,8 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="51"/>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="54"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -2918,8 +3154,8 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="51"/>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -2927,8 +3163,8 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="51"/>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -2936,8 +3172,8 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="42">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="58">
         <v>3</v>
       </c>
       <c r="B10" s="9"/>
@@ -2947,8 +3183,8 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="42"/>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -2956,8 +3192,8 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="42"/>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="58"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2965,8 +3201,8 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="42"/>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2974,8 +3210,8 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="42">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="58">
         <v>4</v>
       </c>
       <c r="B14" s="9"/>
@@ -2985,8 +3221,8 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="42"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="58"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2994,8 +3230,8 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="42"/>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="58"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -3003,8 +3239,8 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="42"/>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="58"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -3012,46 +3248,46 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="13"/>
     </row>
   </sheetData>

--- a/기획문서/UDP_PlayerWeapons.xlsx
+++ b/기획문서/UDP_PlayerWeapons.xlsx
@@ -5,19 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubProject\UDP\기획문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C\UDP\기획문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DECF4C-D0EF-4E4F-BC4D-E5EFE5790275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805C105B-7D19-43A1-8ACA-CC0762F104F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
   </bookViews>
   <sheets>
-    <sheet name="TotalTable" sheetId="5" r:id="rId1"/>
-    <sheet name="근거리" sheetId="4" r:id="rId2"/>
-    <sheet name="중거리" sheetId="3" r:id="rId3"/>
-    <sheet name="원거리" sheetId="1" r:id="rId4"/>
-    <sheet name="temp" sheetId="2" r:id="rId5"/>
+    <sheet name="근거리" sheetId="4" r:id="rId1"/>
+    <sheet name="중거리" sheetId="3" r:id="rId2"/>
+    <sheet name="원거리" sheetId="1" r:id="rId3"/>
+    <sheet name="temp" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t xml:space="preserve">이름 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,6 +224,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">이동속도를 5초 동안 최고속도에 도달합니다.
+긴급 탈출을 사용하는 동안 연료를 사용하지 않습니다
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>최대 체력의 20%를 회복합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -325,306 +330,6 @@
   </si>
   <si>
     <t>폭발 범위 40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포탄 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>melee_weapon_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>melee_weapon_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>melee_weapon_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>melee_weapon_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>melee_skill_Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>melee_skill_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본탄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부식탄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사슬 갈고리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발탄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산탄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격대상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포탄 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발당 피해량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본이 되는 산탄 형태의 주포입니다. 레벨이 높아질수록 피해량과 발사되는 포탄의 수가 증가합니다.</t>
-  </si>
-  <si>
-    <t>적의 장갑과 외부 보호 장치를 부식시키는 탄환을 발사하는 주포입니다. 적중한 적에게 가하는 피해량이 3초 동안 50% 증가합니다.</t>
-  </si>
-  <si>
-    <t>특이사항/설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적에게 두 번의 데미지를 주는 탄환을 발사하는 주포입니다. 적중한 탄환은 2초 후 한 번 더 폭발하여, 탄환 피해량의 20%/30%/40%/50%만큼 추가 피해를 입힙니다.</t>
-  </si>
-  <si>
-    <t>플레이어가 바라보는 방향으로 사슬 갈고리를 던져, 적중 시 플레이어가 60의 속도로 적중한 적에게 이동합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle_weapon_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle_weapon_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_weapon_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle_weapon_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle_weapon_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_weapon_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_weapon_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_weapon_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle_skill_Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle_skill_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_skill_Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_skill_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음에 사용하는 주포의 쿨타임을 1회 제거합니다.</t>
-  </si>
-  <si>
-    <t>3초 동안 적의 공격을 막아주는 방어막을 생성합니다.</t>
-  </si>
-  <si>
-    <t>5초 동안 적에게 입힌 피해만큼 내구도를 회복합니다.</t>
-  </si>
-  <si>
-    <t>최대 체력의 20%를 회복합니다.</t>
-  </si>
-  <si>
-    <t>쿨타임(초)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도를 5초 동안 최고속도에 도달합니다. 긴급 탈출을 사용하는 동안 연료를 사용하지 않습니다</t>
-  </si>
-  <si>
-    <t>이동속도를 5초 동안 최고속도에 도달합니다. 긴급 탈출을 사용하는 동안 연료를 사용하지 않습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 주변 20거리 이내 모든 적 포탄의 이동을 멈춥니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다크 매터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연속 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철갑소이탄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근접 유도 어뢰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMP 자폭탄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플라즈마 광선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4+(레벨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3+(레벨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2+(레벨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10+(레벨)*10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-(레벨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>즉발</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25/35/40/50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10+(레벨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50/75/90/120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 포탄을 공격시 공격당 1발씩 공격 DPM 4레벨 기준 초당 50</t>
-  </si>
-  <si>
-    <t>조준한 방향으로 암흑물질을 발사. 적 적중 시, 반지름 20범위 이내의 적들을 암흑물질의 중심으로 끌어당김. 적을 끌어당긴 후 암흑물질은 그 자리에 4초동안 남아있으며, 주변 반지름 20범위 이내의 적들의 이동속도를 최대 15%/20%/25%/30% 둔화. 공중에 남아있는 암흑 물질은 빨간 버튼으로 폭발시킬 수 있다. 최대 사거리는 50이며, 적에게 적중하지 않더라도 최대 사거리에서 발동한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다크 매터에 스킬포인트가 없다면 사용 불가능 다크 매터와의 연계스킬 다크 매터를 터뜨려서 적에게 피해를 입힘 범위 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4점사 공격을 4번 공격 DPM : 4레벨 기준 초당 200 사거리는 기본 공격 사거리와 동일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8+(레벨*4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4+(레벨*2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9+(레벨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36+(레벨*12)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>히트 스캔, 관통, 발사 선딜레이 2초 (선딜레이: 발사 입력 시 방향을 기억하고, 선딜레이 시간이 끝날 때, 기억한 방향으로 실제 포탄을 발사)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포탄이 0.2초 간격으로 2발씩 발사, 적중한 대상에게 4초동안 받는 피해량이 20% 증가하는 디버프 부여</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동 중 반지름 16+(레벨*4) 거리 이내의 적 포착 시 추적</t>
-  </si>
-  <si>
-    <t>이동 중 20 거리 이내의 적 포착 시 폭발, 폭발 범위 30+(레벨*5). 폭발에 휘말린 적은 폭발 방향으로 밀려남.</t>
-  </si>
-  <si>
-    <t>13-(레벨)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,7 +562,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,15 +632,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1055,18 +751,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1401,559 +1085,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684FD040-9A58-4E0F-8A25-298CFB649FAF}">
-  <dimension ref="A1:K23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:I16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="8.625" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" s="68" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="68">
-        <v>20</v>
-      </c>
-      <c r="H3" s="68">
-        <v>3</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="68">
-        <v>5</v>
-      </c>
-      <c r="F4" s="68">
-        <v>2</v>
-      </c>
-      <c r="G4" s="68">
-        <v>25</v>
-      </c>
-      <c r="H4" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="68">
-        <v>1</v>
-      </c>
-      <c r="F5" s="68">
-        <v>10</v>
-      </c>
-      <c r="G5" s="68" t="s">
-        <v>127</v>
-      </c>
-      <c r="H5" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="68" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="68">
-        <v>20</v>
-      </c>
-      <c r="H6" s="68">
-        <v>8</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="68">
-        <v>1</v>
-      </c>
-      <c r="F7" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="G7" s="68">
-        <v>25</v>
-      </c>
-      <c r="H7" s="68">
-        <v>1</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="68">
-        <v>1</v>
-      </c>
-      <c r="F8" s="68" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="69">
-        <v>15</v>
-      </c>
-      <c r="H8" s="68">
-        <v>11</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="F9" s="68" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="68">
-        <v>13</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="E10" s="68">
-        <v>4</v>
-      </c>
-      <c r="F10" s="68" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="68">
-        <v>25</v>
-      </c>
-      <c r="H10" s="68">
-        <v>10</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="E11" s="69">
-        <v>4</v>
-      </c>
-      <c r="F11" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" s="68">
-        <v>25</v>
-      </c>
-      <c r="H11" s="68">
-        <v>2</v>
-      </c>
-      <c r="I11" s="23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="E12" s="68">
-        <v>2</v>
-      </c>
-      <c r="F12" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="G12" s="68">
-        <v>30</v>
-      </c>
-      <c r="H12" s="68">
-        <v>6</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="K12" s="67"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="68">
-        <v>1</v>
-      </c>
-      <c r="F13" s="68" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" s="68">
-        <v>20</v>
-      </c>
-      <c r="H13" s="68" t="s">
-        <v>149</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="K13" s="67"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="E14" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" s="68" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="H14" s="68">
-        <v>12</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="K14" s="67"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K15" s="67"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="24">
-        <v>12</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="24">
-        <v>15</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="24">
-        <v>20</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="24">
-        <v>15</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="24">
-        <v>12</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="24">
-        <v>12</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9994DB1-7A88-429D-9CFE-E67689A4F62A}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="50.625" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="50.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1976,319 +1121,319 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>47</v>
+      <c r="B2" s="26" t="s">
+        <v>48</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="26">
         <v>20</v>
       </c>
       <c r="E2" s="4">
         <v>5</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="26">
         <v>3</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>48</v>
+      <c r="G2" s="23" t="s">
+        <v>49</v>
       </c>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="4">
         <v>4</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="27"/>
       <c r="E3" s="4">
         <v>6</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="4">
         <v>5</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="4">
         <v>7</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="4">
         <v>6</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="4">
         <v>8</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34">
+      <c r="F5" s="28"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="29">
+      <c r="B6" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="26">
         <v>2</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="26">
         <v>25</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="26">
         <v>5</v>
       </c>
       <c r="F6" s="4">
         <v>6</v>
       </c>
-      <c r="G6" s="26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="G6" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="31"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="4">
         <v>4</v>
       </c>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="31"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="11">
         <v>3</v>
       </c>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34">
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="31">
         <v>3</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="29">
+      <c r="B10" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="26">
         <v>10</v>
       </c>
       <c r="D10" s="4">
         <v>20</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="26">
         <v>1</v>
       </c>
       <c r="F10" s="4">
         <v>6</v>
       </c>
-      <c r="G10" s="41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
+      <c r="G10" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="31"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="4">
         <v>30</v>
       </c>
-      <c r="E11" s="30"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="G11" s="42"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
+      <c r="G11" s="39"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="31"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="4">
         <v>40</v>
       </c>
-      <c r="E12" s="30"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="4">
         <v>4</v>
       </c>
-      <c r="G12" s="42"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
+      <c r="G12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="31"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="11">
         <v>50</v>
       </c>
-      <c r="E13" s="31"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="43"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34">
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="31">
         <v>4</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>53</v>
+      <c r="B14" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="26">
         <v>20</v>
       </c>
       <c r="E14" s="4">
         <v>4</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="26">
         <v>8</v>
       </c>
-      <c r="G14" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
-      <c r="B15" s="30"/>
+      <c r="G14" s="23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="31"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="4">
         <v>6</v>
       </c>
-      <c r="D15" s="30"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="4">
         <v>5</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="30"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="31"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="4">
         <v>7</v>
       </c>
-      <c r="D16" s="30"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="4">
         <v>6</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="31"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="31"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="4">
         <v>8</v>
       </c>
-      <c r="D17" s="31"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="4">
         <v>7</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="25"/>
       <c r="H17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
+      <c r="C20" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="14" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2324,21 +1469,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EF9496-DE58-419F-893B-F291F26CE53B}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="45.625" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="45.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2361,8 +1506,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -2371,60 +1516,60 @@
       <c r="C2" s="6">
         <v>25</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="26">
         <v>25</v>
       </c>
-      <c r="E2" s="55">
+      <c r="E2" s="52">
         <v>1</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="42">
         <v>1</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="42" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="27"/>
       <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="6">
         <v>35</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="46"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="43"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="27"/>
       <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="6">
         <v>40</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="46"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="43"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="28"/>
       <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="6">
         <v>50</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="47"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54">
+      <c r="D5" s="28"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="44"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="51">
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -2433,60 +1578,60 @@
       <c r="C6" s="12">
         <v>15</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="45">
         <v>15</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="45">
         <v>1</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="48">
         <v>11</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="48" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="51"/>
       <c r="B7" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="12">
         <v>20</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="51"/>
       <c r="B8" s="20" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="12">
         <v>25</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="51"/>
       <c r="B9" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="12">
         <v>30</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58">
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="55">
         <v>3</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -2495,60 +1640,60 @@
       <c r="C10" s="12">
         <v>50</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="45">
         <v>1</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="48">
         <v>13</v>
       </c>
-      <c r="G10" s="51" t="s">
+      <c r="G10" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="55"/>
       <c r="B11" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="12">
         <v>75</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="49"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="46"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="55"/>
       <c r="B12" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="12">
         <v>90</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="49"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="46"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="55"/>
       <c r="B13" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="12">
         <v>120</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="50"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58">
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="47"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="55">
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -2557,108 +1702,108 @@
       <c r="C14" s="6">
         <v>25</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="26">
         <v>25</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="45">
         <v>4</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="45">
         <v>10</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="48" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="55"/>
       <c r="B15" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="6">
         <v>35</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="55"/>
       <c r="B16" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="6">
         <v>40</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="55"/>
       <c r="B17" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="6">
         <v>50</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="28"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="59" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
+      <c r="C20" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="60" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="62"/>
+      <c r="C21" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
       <c r="H21" s="21">
         <v>15</v>
       </c>
@@ -2694,21 +1839,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C119C-42F6-4CF6-ADF9-8275A6751DB2}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="45.625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="45.58203125" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2731,298 +1876,298 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="26" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="15">
         <v>6</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="26">
         <v>25</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="26">
         <v>4</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="26">
         <v>2</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="30"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="31"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="15">
         <v>8</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="30"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="31"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="15">
         <v>10</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="31"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="31"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="15">
         <v>12</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="31">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="26" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="15">
         <v>12</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="26">
         <v>30</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="26">
         <v>2</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="26">
         <v>6</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="30"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="31"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="15">
         <v>16</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="30"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="31"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="15">
         <v>20</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="31"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="31"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="15">
         <v>24</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="31">
         <v>3</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="15">
         <v>10</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="26">
         <v>20</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="26">
         <v>1</v>
       </c>
       <c r="F10" s="4">
         <v>12</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="30"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="31"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="15">
         <v>11</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="4">
         <v>11</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="30"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="31"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="15">
         <v>12</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="4">
         <v>10</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="31"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="31"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="15">
         <v>13</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="4">
         <v>9</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="31">
         <v>4</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="15">
         <v>48</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="26">
         <v>1</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="26">
         <v>12</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
-      <c r="B15" s="30"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="31"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="15">
         <v>60</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="30"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="31"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="15">
         <v>72</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="31"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="31"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="15">
         <v>84</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="28"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="65"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="62"/>
       <c r="H20" s="14">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="63" t="s">
+      <c r="C21" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="65"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="14">
         <v>12</v>
       </c>
@@ -3059,7 +2204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E27E35B-327B-4FE1-A32E-4807EFE5B29C}">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -3067,13 +2212,13 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="45.625" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="45.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3096,8 +2241,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
@@ -3107,8 +2252,8 @@
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="27"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -3116,8 +2261,8 @@
       <c r="F3" s="6"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="27"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -3125,8 +2270,8 @@
       <c r="F4" s="6"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="28"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3134,8 +2279,8 @@
       <c r="F5" s="6"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="54">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="51">
         <v>2</v>
       </c>
       <c r="B6" s="2"/>
@@ -3145,8 +2290,8 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="51"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -3154,8 +2299,8 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="51"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -3163,8 +2308,8 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="51"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -3172,8 +2317,8 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="58">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="55">
         <v>3</v>
       </c>
       <c r="B10" s="9"/>
@@ -3183,8 +2328,8 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58"/>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="55"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -3192,8 +2337,8 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="58"/>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="55"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -3201,8 +2346,8 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58"/>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="55"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -3210,8 +2355,8 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="55">
         <v>4</v>
       </c>
       <c r="B14" s="9"/>
@@ -3221,8 +2366,8 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="55"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -3230,8 +2375,8 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="55"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -3239,8 +2384,8 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="58"/>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="55"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -3248,46 +2393,46 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
       <c r="H19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
       <c r="H21" s="13"/>
     </row>
   </sheetData>

--- a/기획문서/UDP_PlayerWeapons.xlsx
+++ b/기획문서/UDP_PlayerWeapons.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C\UDP\기획문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubProject\UDP\기획문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805C105B-7D19-43A1-8ACA-CC0762F104F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DECF4C-D0EF-4E4F-BC4D-E5EFE5790275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
   </bookViews>
   <sheets>
-    <sheet name="근거리" sheetId="4" r:id="rId1"/>
-    <sheet name="중거리" sheetId="3" r:id="rId2"/>
-    <sheet name="원거리" sheetId="1" r:id="rId3"/>
-    <sheet name="temp" sheetId="2" r:id="rId4"/>
+    <sheet name="TotalTable" sheetId="5" r:id="rId1"/>
+    <sheet name="근거리" sheetId="4" r:id="rId2"/>
+    <sheet name="중거리" sheetId="3" r:id="rId3"/>
+    <sheet name="원거리" sheetId="1" r:id="rId4"/>
+    <sheet name="temp" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="150">
   <si>
     <t xml:space="preserve">이름 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,12 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">이동속도를 5초 동안 최고속도에 도달합니다.
-긴급 탈출을 사용하는 동안 연료를 사용하지 않습니다
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최대 체력의 20%를 회복합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,6 +325,306 @@
   </si>
   <si>
     <t>폭발 범위 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탄 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_weapon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_weapon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_weapon_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_weapon_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_skill_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_skill_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부식탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사슬 갈고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탄 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발당 피해량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본이 되는 산탄 형태의 주포입니다. 레벨이 높아질수록 피해량과 발사되는 포탄의 수가 증가합니다.</t>
+  </si>
+  <si>
+    <t>적의 장갑과 외부 보호 장치를 부식시키는 탄환을 발사하는 주포입니다. 적중한 적에게 가하는 피해량이 3초 동안 50% 증가합니다.</t>
+  </si>
+  <si>
+    <t>특이사항/설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 두 번의 데미지를 주는 탄환을 발사하는 주포입니다. 적중한 탄환은 2초 후 한 번 더 폭발하여, 탄환 피해량의 20%/30%/40%/50%만큼 추가 피해를 입힙니다.</t>
+  </si>
+  <si>
+    <t>플레이어가 바라보는 방향으로 사슬 갈고리를 던져, 적중 시 플레이어가 60의 속도로 적중한 적에게 이동합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_weapon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_weapon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_weapon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_weapon_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_weapon_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_weapon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_weapon_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_weapon_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_skill_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_skill_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_skill_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_skill_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음에 사용하는 주포의 쿨타임을 1회 제거합니다.</t>
+  </si>
+  <si>
+    <t>3초 동안 적의 공격을 막아주는 방어막을 생성합니다.</t>
+  </si>
+  <si>
+    <t>5초 동안 적에게 입힌 피해만큼 내구도를 회복합니다.</t>
+  </si>
+  <si>
+    <t>최대 체력의 20%를 회복합니다.</t>
+  </si>
+  <si>
+    <t>쿨타임(초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도를 5초 동안 최고속도에 도달합니다. 긴급 탈출을 사용하는 동안 연료를 사용하지 않습니다</t>
+  </si>
+  <si>
+    <t>이동속도를 5초 동안 최고속도에 도달합니다. 긴급 탈출을 사용하는 동안 연료를 사용하지 않습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 주변 20거리 이내 모든 적 포탄의 이동을 멈춥니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크 매터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철갑소이탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 유도 어뢰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP 자폭탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라즈마 광선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4+(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3+(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+(레벨)*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25/35/40/50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50/75/90/120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 포탄을 공격시 공격당 1발씩 공격 DPM 4레벨 기준 초당 50</t>
+  </si>
+  <si>
+    <t>조준한 방향으로 암흑물질을 발사. 적 적중 시, 반지름 20범위 이내의 적들을 암흑물질의 중심으로 끌어당김. 적을 끌어당긴 후 암흑물질은 그 자리에 4초동안 남아있으며, 주변 반지름 20범위 이내의 적들의 이동속도를 최대 15%/20%/25%/30% 둔화. 공중에 남아있는 암흑 물질은 빨간 버튼으로 폭발시킬 수 있다. 최대 사거리는 50이며, 적에게 적중하지 않더라도 최대 사거리에서 발동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크 매터에 스킬포인트가 없다면 사용 불가능 다크 매터와의 연계스킬 다크 매터를 터뜨려서 적에게 피해를 입힘 범위 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4점사 공격을 4번 공격 DPM : 4레벨 기준 초당 200 사거리는 기본 공격 사거리와 동일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8+(레벨*4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4+(레벨*2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9+(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36+(레벨*12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히트 스캔, 관통, 발사 선딜레이 2초 (선딜레이: 발사 입력 시 방향을 기억하고, 선딜레이 시간이 끝날 때, 기억한 방향으로 실제 포탄을 발사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탄이 0.2초 간격으로 2발씩 발사, 적중한 대상에게 4초동안 받는 피해량이 20% 증가하는 디버프 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 중 반지름 16+(레벨*4) 거리 이내의 적 포착 시 추적</t>
+  </si>
+  <si>
+    <t>이동 중 20 거리 이내의 적 포착 시 폭발, 폭발 범위 30+(레벨*5). 폭발에 휘말린 적은 폭발 방향으로 밀려남.</t>
+  </si>
+  <si>
+    <t>13-(레벨)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,7 +857,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -632,6 +927,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -751,6 +1055,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1085,20 +1401,559 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684FD040-9A58-4E0F-8A25-298CFB649FAF}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="68">
+        <v>20</v>
+      </c>
+      <c r="H3" s="68">
+        <v>3</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="68">
+        <v>5</v>
+      </c>
+      <c r="F4" s="68">
+        <v>2</v>
+      </c>
+      <c r="G4" s="68">
+        <v>25</v>
+      </c>
+      <c r="H4" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="68">
+        <v>1</v>
+      </c>
+      <c r="F5" s="68">
+        <v>10</v>
+      </c>
+      <c r="G5" s="68" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="68">
+        <v>20</v>
+      </c>
+      <c r="H6" s="68">
+        <v>8</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="68">
+        <v>1</v>
+      </c>
+      <c r="F7" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" s="68">
+        <v>25</v>
+      </c>
+      <c r="H7" s="68">
+        <v>1</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="68">
+        <v>1</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="G8" s="69">
+        <v>15</v>
+      </c>
+      <c r="H8" s="68">
+        <v>11</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="68">
+        <v>13</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="68">
+        <v>4</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" s="68">
+        <v>25</v>
+      </c>
+      <c r="H10" s="68">
+        <v>10</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="69">
+        <v>4</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="68">
+        <v>25</v>
+      </c>
+      <c r="H11" s="68">
+        <v>2</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="68">
+        <v>2</v>
+      </c>
+      <c r="F12" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="68">
+        <v>30</v>
+      </c>
+      <c r="H12" s="68">
+        <v>6</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="K12" s="67"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="68">
+        <v>1</v>
+      </c>
+      <c r="F13" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="68">
+        <v>20</v>
+      </c>
+      <c r="H13" s="68" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="67"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" s="68">
+        <v>12</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" s="67"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="67"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="24">
+        <v>12</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="24">
+        <v>15</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="24">
+        <v>20</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="24">
+        <v>15</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="24">
+        <v>12</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="24">
+        <v>12</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9994DB1-7A88-429D-9CFE-E67689A4F62A}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:G21"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
-    <col min="7" max="7" width="50.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1121,319 +1976,319 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="26">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>48</v>
+      <c r="B2" s="29" t="s">
+        <v>47</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="29">
         <v>20</v>
       </c>
       <c r="E2" s="4">
         <v>5</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="29">
         <v>3</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>49</v>
+      <c r="G2" s="26" t="s">
+        <v>48</v>
       </c>
       <c r="H2" s="22"/>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="4">
         <v>4</v>
       </c>
-      <c r="D3" s="27"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="4">
         <v>6</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="24"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="4">
         <v>5</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="4">
         <v>7</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="4">
         <v>6</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="4">
         <v>8</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="31">
+      <c r="F5" s="31"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="26">
+      <c r="B6" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="29">
         <v>2</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="29">
         <v>25</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="29">
         <v>5</v>
       </c>
       <c r="F6" s="4">
         <v>6</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="31"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="G6" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="4">
         <v>5</v>
       </c>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="31"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="4">
         <v>4</v>
       </c>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="31"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="G8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="11">
         <v>3</v>
       </c>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="31">
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34">
         <v>3</v>
       </c>
-      <c r="B10" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="26">
+      <c r="B10" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="29">
         <v>10</v>
       </c>
       <c r="D10" s="4">
         <v>20</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="29">
         <v>1</v>
       </c>
       <c r="F10" s="4">
         <v>6</v>
       </c>
-      <c r="G10" s="38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="31"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="G10" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="4">
         <v>30</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="G11" s="39"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="31"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="G11" s="42"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="4">
         <v>40</v>
       </c>
-      <c r="E12" s="27"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="4">
         <v>4</v>
       </c>
-      <c r="G12" s="39"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="31"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="G12" s="42"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="11">
         <v>50</v>
       </c>
-      <c r="E13" s="28"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="31">
+      <c r="G13" s="43"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34">
         <v>4</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>54</v>
+      <c r="B14" s="29" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="29">
         <v>20</v>
       </c>
       <c r="E14" s="4">
         <v>4</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="29">
         <v>8</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="31"/>
-      <c r="B15" s="27"/>
+      <c r="G14" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="4">
         <v>6</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="4">
         <v>5</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="31"/>
-      <c r="B16" s="27"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="4">
         <v>7</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="4">
         <v>6</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="31"/>
-      <c r="B17" s="28"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="4">
         <v>8</v>
       </c>
-      <c r="D17" s="28"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="4">
         <v>7</v>
       </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="25"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="28"/>
       <c r="H17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="44" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="41" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="14" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1469,21 +2324,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EF9496-DE58-419F-893B-F291F26CE53B}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
-    <col min="7" max="7" width="45.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1506,8 +2361,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="26">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1516,60 +2371,60 @@
       <c r="C2" s="6">
         <v>25</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="29">
         <v>25</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="55">
         <v>1</v>
       </c>
-      <c r="F2" s="42">
+      <c r="F2" s="45">
         <v>1</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="45" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="27"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30"/>
       <c r="B3" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="6">
         <v>35</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="43"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="27"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="46"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
       <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="6">
         <v>40</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="43"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="28"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="46"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
       <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="6">
         <v>50</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="44"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="51">
+      <c r="D5" s="31"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="47"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54">
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
@@ -1578,60 +2433,60 @@
       <c r="C6" s="12">
         <v>15</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="48">
         <v>15</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="48">
         <v>1</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="51">
         <v>11</v>
       </c>
-      <c r="G6" s="48" t="s">
+      <c r="G6" s="51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="51"/>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="54"/>
       <c r="B7" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="12">
         <v>20</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="51"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
       <c r="B8" s="20" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="12">
         <v>25</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="51"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
       <c r="B9" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="12">
         <v>30</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="55">
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="58">
         <v>3</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -1640,60 +2495,60 @@
       <c r="C10" s="12">
         <v>50</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="48">
         <v>1</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="51">
         <v>13</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="55"/>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58"/>
       <c r="B11" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="12">
         <v>75</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="46"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="55"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="49"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="58"/>
       <c r="B12" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="12">
         <v>90</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="46"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="55"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="49"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
       <c r="B13" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C13" s="12">
         <v>120</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="47"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="55">
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="50"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="58">
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -1702,108 +2557,108 @@
       <c r="C14" s="6">
         <v>25</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="29">
         <v>25</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="48">
         <v>4</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="48">
         <v>10</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="55"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="58"/>
       <c r="B15" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="6">
         <v>35</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="55"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="58"/>
       <c r="B16" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="6">
         <v>40</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="55"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="58"/>
       <c r="B17" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="6">
         <v>50</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D17" s="31"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
+      <c r="C20" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
+      <c r="C21" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="21">
         <v>15</v>
       </c>
@@ -1839,21 +2694,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C119C-42F6-4CF6-ADF9-8275A6751DB2}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
-    <col min="7" max="7" width="45.58203125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="45.625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1876,298 +2731,298 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="31">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="15">
         <v>6</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="29">
         <v>25</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="29">
         <v>4</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="29">
         <v>2</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="26" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="31"/>
-      <c r="B3" s="27"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="15">
         <v>8</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="31"/>
-      <c r="B4" s="27"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="15">
         <v>10</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="31"/>
-      <c r="B5" s="28"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="15">
         <v>12</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="31">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="15">
         <v>12</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="29">
         <v>30</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="29">
         <v>2</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="29">
         <v>6</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="31"/>
-      <c r="B7" s="27"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="15">
         <v>16</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="31"/>
-      <c r="B8" s="27"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="15">
         <v>20</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="31"/>
-      <c r="B9" s="28"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="15">
         <v>24</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="31">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="34">
         <v>3</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="15">
         <v>10</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="29">
         <v>20</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="29">
         <v>1</v>
       </c>
       <c r="F10" s="4">
         <v>12</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="31"/>
-      <c r="B11" s="27"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="15">
         <v>11</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
       <c r="F11" s="4">
         <v>11</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="31"/>
-      <c r="B12" s="27"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="15">
         <v>12</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="4">
         <v>10</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="31"/>
-      <c r="B13" s="28"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="34"/>
+      <c r="B13" s="31"/>
       <c r="C13" s="15">
         <v>13</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="4">
         <v>9</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="31">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34">
         <v>4</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="29" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="15">
         <v>48</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="29">
         <v>1</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="29">
         <v>12</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="26" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="31"/>
-      <c r="B15" s="27"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="34"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="15">
         <v>60</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="31"/>
-      <c r="B16" s="27"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="15">
         <v>72</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="31"/>
-      <c r="B17" s="28"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="34"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="15">
         <v>84</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="62"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="65"/>
       <c r="H20" s="14">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="62"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="14">
         <v>12</v>
       </c>
@@ -2204,7 +3059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E27E35B-327B-4FE1-A32E-4807EFE5B29C}">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -2212,13 +3067,13 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
-    <col min="7" max="7" width="45.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2241,8 +3096,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="26">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
@@ -2252,8 +3107,8 @@
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="27"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2261,8 +3116,8 @@
       <c r="F3" s="6"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2270,8 +3125,8 @@
       <c r="F4" s="6"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="28"/>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2279,8 +3134,8 @@
       <c r="F5" s="6"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="51">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54">
         <v>2</v>
       </c>
       <c r="B6" s="2"/>
@@ -2290,8 +3145,8 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="51"/>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="54"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -2299,8 +3154,8 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="51"/>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -2308,8 +3163,8 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="51"/>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -2317,8 +3172,8 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="55">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="58">
         <v>3</v>
       </c>
       <c r="B10" s="9"/>
@@ -2328,8 +3183,8 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="55"/>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="58"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -2337,8 +3192,8 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="55"/>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="58"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2346,8 +3201,8 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="55"/>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2355,8 +3210,8 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="55">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="58">
         <v>4</v>
       </c>
       <c r="B14" s="9"/>
@@ -2366,8 +3221,8 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="55"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="58"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2375,8 +3230,8 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="55"/>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="58"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2384,8 +3239,8 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="55"/>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="58"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -2393,46 +3248,46 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="13"/>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="13"/>
     </row>
   </sheetData>

--- a/기획문서/UDP_PlayerWeapons.xlsx
+++ b/기획문서/UDP_PlayerWeapons.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C\UDP\기획문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubProject\UDP\기획문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805C105B-7D19-43A1-8ACA-CC0762F104F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C529A0-8360-46B5-9951-758209D99313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="근거리" sheetId="4" r:id="rId1"/>
     <sheet name="중거리" sheetId="3" r:id="rId2"/>
     <sheet name="원거리" sheetId="1" r:id="rId3"/>
-    <sheet name="temp" sheetId="2" r:id="rId4"/>
+    <sheet name="TotalTable" sheetId="5" r:id="rId4"/>
+    <sheet name="temp" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="134">
   <si>
     <t xml:space="preserve">이름 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,42 +135,12 @@
   <si>
     <t>히트 스캔, 관통, 발사 선딜레이 2초
 선딜레이: 발사 입력 시 방향을 기억하고, 선딜레이 시간이 끝날 때, 기억한 방향으로 실제 포탄을 발사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 공격 LV1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">기본 포탄을 공격시 공격당 1발씩 공격
 DPM 4레벨 기준 초당 50
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 공격 LV2</t>
-  </si>
-  <si>
-    <t>기본 공격 LV3</t>
-  </si>
-  <si>
-    <t>기본 공격 LV4</t>
-  </si>
-  <si>
-    <t>다크 매터 LV1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다크 매터 LV2</t>
-  </si>
-  <si>
-    <t>다크 매터 LV3</t>
-  </si>
-  <si>
-    <t>다크 매터 LV4</t>
-  </si>
-  <si>
-    <t>빨간 버튼LV1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -181,32 +152,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>빨간 버튼LV2</t>
-  </si>
-  <si>
-    <t>빨간 버튼LV3</t>
-  </si>
-  <si>
-    <t>빨간 버튼LV4</t>
-  </si>
-  <si>
-    <t>연속 공격LV1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4점사 공격을 4번 공격
 DPM : 4레벨 기준 초당 200
 사거리는 기본 공격 사거리와 동일</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연속 공격LV2</t>
-  </si>
-  <si>
-    <t>연속 공격LV3</t>
-  </si>
-  <si>
-    <t>연속 공격LV4</t>
   </si>
   <si>
     <t>조준한 방향으로 암흑물질을 발사. 적 적중 시, 반지름 20범위 이내의 적들을 암흑물질의 중심으로 끌어당김.
@@ -224,12 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">이동속도를 5초 동안 최고속도에 도달합니다.
-긴급 탈출을 사용하는 동안 연료를 사용하지 않습니다
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최대 체력의 20%를 회복합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,18 +228,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5초 동안 적에게 입힌 피해만큼 내구도를 회복합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15초</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>타오르는 힘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,6 +265,314 @@
   </si>
   <si>
     <t>폭발 범위 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탄 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_weapon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_weapon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_weapon_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_weapon_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_skill_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_skill_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사슬 갈고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탄 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발당 피해량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본이 되는 산탄 형태의 주포입니다. 레벨이 높아질수록 피해량과 발사되는 포탄의 수가 증가합니다.</t>
+  </si>
+  <si>
+    <t>적의 장갑과 외부 보호 장치를 부식시키는 탄환을 발사하는 주포입니다. 적중한 적에게 가하는 피해량이 3초 동안 50% 증가합니다.</t>
+  </si>
+  <si>
+    <t>특이사항/설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 두 번의 데미지를 주는 탄환을 발사하는 주포입니다. 적중한 탄환은 2초 후 한 번 더 폭발하여, 탄환 피해량의 20%/30%/40%/50%만큼 추가 피해를 입힙니다.</t>
+  </si>
+  <si>
+    <t>플레이어가 바라보는 방향으로 사슬 갈고리를 던져, 적중 시 플레이어가 60의 속도로 적중한 적에게 이동합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_weapon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_weapon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_weapon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_weapon_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_weapon_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_weapon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_weapon_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_weapon_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_skill_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_skill_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_skill_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_skill_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음에 사용하는 주포의 쿨타임을 1회 제거합니다.</t>
+  </si>
+  <si>
+    <t>3초 동안 적의 공격을 막아주는 방어막을 생성합니다.</t>
+  </si>
+  <si>
+    <t>5초 동안 적에게 입힌 피해만큼 내구도를 회복합니다.</t>
+  </si>
+  <si>
+    <t>최대 체력의 20%를 회복합니다.</t>
+  </si>
+  <si>
+    <t>쿨타임(초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도를 5초 동안 최고속도에 도달합니다. 긴급 탈출을 사용하는 동안 연료를 사용하지 않습니다</t>
+  </si>
+  <si>
+    <t>이동속도를 5초 동안 최고속도에 도달합니다. 긴급 탈출을 사용하는 동안 연료를 사용하지 않습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 주변 20거리 이내 모든 적 포탄의 이동을 멈춥니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크 매터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철갑소이탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 유도 어뢰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP 자폭탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라즈마 광선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4+(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3+(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+(레벨)*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25/35/40/50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50/75/90/120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 포탄을 공격시 공격당 1발씩 공격 DPM 4레벨 기준 초당 50</t>
+  </si>
+  <si>
+    <t>조준한 방향으로 암흑물질을 발사. 적 적중 시, 반지름 20범위 이내의 적들을 암흑물질의 중심으로 끌어당김. 적을 끌어당긴 후 암흑물질은 그 자리에 4초동안 남아있으며, 주변 반지름 20범위 이내의 적들의 이동속도를 최대 15%/20%/25%/30% 둔화. 공중에 남아있는 암흑 물질은 빨간 버튼으로 폭발시킬 수 있다. 최대 사거리는 50이며, 적에게 적중하지 않더라도 최대 사거리에서 발동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크 매터에 스킬포인트가 없다면 사용 불가능 다크 매터와의 연계스킬 다크 매터를 터뜨려서 적에게 피해를 입힘 범위 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4점사 공격을 4번 공격 DPM : 4레벨 기준 초당 200 사거리는 기본 공격 사거리와 동일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8+(레벨*4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4+(레벨*2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9+(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36+(레벨*12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>히트 스캔, 관통, 발사 선딜레이 2초 (선딜레이: 발사 입력 시 방향을 기억하고, 선딜레이 시간이 끝날 때, 기억한 방향으로 실제 포탄을 발사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탄이 0.2초 간격으로 2발씩 발사, 적중한 대상에게 4초동안 받는 피해량이 20% 증가하는 디버프 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 중 반지름 16+(레벨*4) 거리 이내의 적 포착 시 추적</t>
+  </si>
+  <si>
+    <t>이동 중 20 거리 이내의 적 포착 시 폭발, 폭발 범위 30+(레벨*5). 폭발에 휘말린 적은 폭발 방향으로 밀려남.</t>
+  </si>
+  <si>
+    <t>13-(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자: 5702600 이창민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자: 5702341 김기석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자: 5645866 구기현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,7 +805,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -593,9 +836,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -623,15 +863,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -641,13 +938,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -656,58 +947,52 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -716,33 +1001,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -751,6 +1009,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1086,383 +1365,395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9994DB1-7A88-429D-9CFE-E67689A4F62A}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:G21"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
-    <col min="7" max="7" width="50.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="26">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B3" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4">
         <v>3</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D3" s="35">
         <v>20</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E3" s="4">
         <v>5</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F3" s="35">
         <v>3</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="22"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="4">
+      <c r="G3" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="4">
+      <c r="D4" s="36"/>
+      <c r="E4" s="4">
         <v>6</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="22"/>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="4">
+      <c r="F4" s="36"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="4">
         <v>5</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="4">
+      <c r="D5" s="36"/>
+      <c r="E5" s="4">
         <v>7</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="4">
+      <c r="F5" s="36"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="4">
         <v>6</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="4">
+      <c r="D6" s="37"/>
+      <c r="E6" s="4">
         <v>8</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="31">
+      <c r="F6" s="37"/>
+      <c r="G6" s="43"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B7" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="35">
+        <v>2</v>
+      </c>
+      <c r="D7" s="35">
+        <v>25</v>
+      </c>
+      <c r="E7" s="35">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4">
+        <v>6</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="4">
+        <v>5</v>
+      </c>
+      <c r="G8" s="45"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="4">
+        <v>4</v>
+      </c>
+      <c r="G9" s="45"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="10">
+        <v>3</v>
+      </c>
+      <c r="G10" s="46"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
+        <v>3</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="35">
+        <v>10</v>
+      </c>
+      <c r="D11" s="4">
+        <v>20</v>
+      </c>
+      <c r="E11" s="35">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>6</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="4">
+        <v>30</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="4">
+        <v>5</v>
+      </c>
+      <c r="G12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="4">
+        <v>40</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="4">
+        <v>4</v>
+      </c>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="10">
         <v>50</v>
       </c>
-      <c r="C6" s="26">
+      <c r="E14" s="37"/>
+      <c r="F14" s="4">
+        <v>3</v>
+      </c>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28">
+        <v>4</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4">
+        <v>5</v>
+      </c>
+      <c r="D15" s="35">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="35">
+        <v>8</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="4">
+        <v>6</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="4">
+        <v>5</v>
+      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="4">
+        <v>7</v>
+      </c>
+      <c r="D17" s="36"/>
+      <c r="E17" s="4">
+        <v>6</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="4">
+        <v>8</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="4">
+        <v>7</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="43"/>
+      <c r="H18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="26">
-        <v>25</v>
-      </c>
-      <c r="E6" s="26">
-        <v>5</v>
-      </c>
-      <c r="F6" s="4">
-        <v>6</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="31"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="4">
-        <v>5</v>
-      </c>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="31"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="4">
-        <v>4</v>
-      </c>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="31"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="11">
+      <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="31">
-        <v>3</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="26">
+      <c r="C20" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4">
-        <v>20</v>
-      </c>
-      <c r="E10" s="26">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>6</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="31"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="4">
-        <v>30</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="4">
-        <v>5</v>
-      </c>
-      <c r="G11" s="39"/>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="31"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="4">
-        <v>40</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="4">
-        <v>4</v>
-      </c>
-      <c r="G12" s="39"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="31"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="11">
-        <v>50</v>
-      </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="4">
-        <v>3</v>
-      </c>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="31">
-        <v>4</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="4">
-        <v>5</v>
-      </c>
-      <c r="D14" s="26">
-        <v>20</v>
-      </c>
-      <c r="E14" s="4">
-        <v>4</v>
-      </c>
-      <c r="F14" s="26">
-        <v>8</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="31"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="4">
-        <v>6</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="4">
-        <v>5</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="31"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="4">
-        <v>7</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="4">
-        <v>6</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="31"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="4">
-        <v>8</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="4">
-        <v>7</v>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="25"/>
-      <c r="H17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="14" t="s">
-        <v>63</v>
+      <c r="B22" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="13">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="C19:G19"/>
+  <mergeCells count="26">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="A19:G19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1471,368 +1762,360 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EF9496-DE58-419F-893B-F291F26CE53B}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
-    <col min="7" max="7" width="45.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="26">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="6">
+        <v>25</v>
+      </c>
+      <c r="D3" s="35">
+        <v>25</v>
+      </c>
+      <c r="E3" s="57">
+        <v>1</v>
+      </c>
+      <c r="F3" s="60">
+        <v>1</v>
+      </c>
+      <c r="G3" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="6">
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="6">
+        <v>35</v>
+      </c>
+      <c r="D4" s="36"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="58"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="6">
+        <v>40</v>
+      </c>
+      <c r="D5" s="36"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="58"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="6">
+        <v>50</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="59"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="56">
+        <v>2</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="11">
+        <v>15</v>
+      </c>
+      <c r="D7" s="52">
+        <v>15</v>
+      </c>
+      <c r="E7" s="52">
+        <v>1</v>
+      </c>
+      <c r="F7" s="55">
+        <v>11</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="56"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="11">
+        <v>20</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="56"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="11">
         <v>25</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="56"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="11">
+        <v>30</v>
+      </c>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="47">
+        <v>3</v>
+      </c>
+      <c r="B11" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="11">
+        <v>50</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="52">
+        <v>1</v>
+      </c>
+      <c r="F11" s="55">
+        <v>13</v>
+      </c>
+      <c r="G11" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="52">
-        <v>1</v>
-      </c>
-      <c r="F2" s="42">
-        <v>1</v>
-      </c>
-      <c r="G2" s="42" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="47"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="11">
+        <v>75</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="53"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="47"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="11">
+        <v>90</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="53"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="47"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="11">
+        <v>120</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="54"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="47">
+        <v>4</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="6">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="27"/>
-      <c r="B3" s="6" t="s">
+      <c r="D15" s="35">
+        <v>25</v>
+      </c>
+      <c r="E15" s="52">
+        <v>4</v>
+      </c>
+      <c r="F15" s="52">
+        <v>10</v>
+      </c>
+      <c r="G15" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6">
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="6">
         <v>35</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="43"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="27"/>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="D16" s="36"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="47"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="6">
         <v>40</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="43"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="28"/>
-      <c r="B5" s="6" t="s">
+      <c r="D17" s="36"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="47"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="6">
+        <v>50</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="6">
-        <v>50</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="44"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="51">
-        <v>2</v>
-      </c>
-      <c r="B6" s="20" t="s">
+      <c r="C21" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C22" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="19">
         <v>15</v>
       </c>
-      <c r="D6" s="45">
-        <v>15</v>
-      </c>
-      <c r="E6" s="45">
-        <v>1</v>
-      </c>
-      <c r="F6" s="48">
-        <v>11</v>
-      </c>
-      <c r="G6" s="48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="51"/>
-      <c r="B7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="12">
-        <v>20</v>
-      </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="51"/>
-      <c r="B8" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="12">
-        <v>25</v>
-      </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="51"/>
-      <c r="B9" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="12">
-        <v>30</v>
-      </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="55">
-        <v>3</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="12">
-        <v>50</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="45">
-        <v>1</v>
-      </c>
-      <c r="F10" s="48">
-        <v>13</v>
-      </c>
-      <c r="G10" s="48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="55"/>
-      <c r="B11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="12">
-        <v>75</v>
-      </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="46"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="55"/>
-      <c r="B12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="12">
-        <v>90</v>
-      </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="46"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="55"/>
-      <c r="B13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="12">
-        <v>120</v>
-      </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="47"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="55">
-        <v>4</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="6">
-        <v>25</v>
-      </c>
-      <c r="D14" s="26">
-        <v>25</v>
-      </c>
-      <c r="E14" s="45">
-        <v>4</v>
-      </c>
-      <c r="F14" s="45">
-        <v>10</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="55"/>
-      <c r="B15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="6">
-        <v>35</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="55"/>
-      <c r="B16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="6">
-        <v>40</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="55"/>
-      <c r="B17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="6">
-        <v>50</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="7">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="21">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="C19:G19"/>
+  <mergeCells count="28">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1841,363 +2124,375 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C119C-42F6-4CF6-ADF9-8275A6751DB2}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
-    <col min="7" max="7" width="45.58203125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="45.625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="68" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="31">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B3" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C3" s="14">
         <v>6</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D3" s="35">
         <v>25</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E3" s="35">
         <v>4</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F3" s="35">
         <v>2</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G3" s="41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="31"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="15">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="28"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="14">
         <v>8</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="31"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="15">
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="14">
         <v>10</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="31"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="15">
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="14">
         <v>12</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="31">
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="43"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C7" s="14">
         <v>12</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D7" s="35">
         <v>30</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E7" s="35">
         <v>2</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F7" s="35">
         <v>6</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="31"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="15">
+      <c r="G7" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="14">
         <v>16</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="31"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="15">
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="14">
         <v>20</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="31"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="15">
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="14">
         <v>24</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="31">
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
         <v>3</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B11" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C11" s="14">
         <v>10</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D11" s="35">
         <v>20</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E11" s="35">
         <v>1</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="4">
         <v>12</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="31"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="15">
+      <c r="G11" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="14">
         <v>11</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="4">
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="4">
         <v>11</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G12" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="14">
+        <v>12</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="4">
+        <v>10</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="14">
+        <v>13</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="4">
+        <v>9</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="28">
+        <v>4</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="14">
+        <v>48</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="35">
+        <v>1</v>
+      </c>
+      <c r="F15" s="35">
+        <v>12</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="14">
+        <v>60</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="14">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="31"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="15">
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="42"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="14">
+        <v>84</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="43"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="13">
         <v>12</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="4">
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="31"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="15">
+      <c r="B22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="4">
-        <v>9</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="31">
-        <v>4</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="15">
-        <v>48</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="26">
-        <v>1</v>
-      </c>
-      <c r="F14" s="26">
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="13">
         <v>12</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="31"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="15">
-        <v>60</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="31"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="15">
-        <v>72</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="31"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="15">
-        <v>84</v>
-      </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="14">
-        <v>12</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C19:G19"/>
+  <mergeCells count="25">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="G3:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2205,6 +2500,545 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684FD040-9A58-4E0F-8A25-298CFB649FAF}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="26">
+        <v>20</v>
+      </c>
+      <c r="H3" s="26">
+        <v>3</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="26">
+        <v>5</v>
+      </c>
+      <c r="F4" s="26">
+        <v>2</v>
+      </c>
+      <c r="G4" s="26">
+        <v>25</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="26">
+        <v>1</v>
+      </c>
+      <c r="F5" s="26">
+        <v>10</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="26">
+        <v>20</v>
+      </c>
+      <c r="H6" s="26">
+        <v>8</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="26">
+        <v>1</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="26">
+        <v>25</v>
+      </c>
+      <c r="H7" s="26">
+        <v>1</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="26">
+        <v>1</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="27">
+        <v>15</v>
+      </c>
+      <c r="H8" s="26">
+        <v>11</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="26">
+        <v>13</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="26">
+        <v>4</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="26">
+        <v>25</v>
+      </c>
+      <c r="H10" s="26">
+        <v>10</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="27">
+        <v>4</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" s="26">
+        <v>25</v>
+      </c>
+      <c r="H11" s="26">
+        <v>2</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="26">
+        <v>2</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="26">
+        <v>30</v>
+      </c>
+      <c r="H12" s="26">
+        <v>6</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="26">
+        <v>1</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="26">
+        <v>20</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="26">
+        <v>12</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" s="25"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="25"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="22">
+        <v>12</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="22">
+        <v>15</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="22">
+        <v>20</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="22">
+        <v>15</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="22">
+        <v>12</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="22">
+        <v>12</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E27E35B-327B-4FE1-A32E-4807EFE5B29C}">
   <dimension ref="A1:H21"/>
   <sheetViews>
@@ -2212,13 +3046,13 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.58203125" customWidth="1"/>
-    <col min="7" max="7" width="45.58203125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2241,8 +3075,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="26">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
@@ -2252,8 +3086,8 @@
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="27"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="36"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2261,8 +3095,8 @@
       <c r="F3" s="6"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -2270,8 +3104,8 @@
       <c r="F4" s="6"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="28"/>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2279,8 +3113,8 @@
       <c r="F5" s="6"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="51">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="56">
         <v>2</v>
       </c>
       <c r="B6" s="2"/>
@@ -2290,8 +3124,8 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="51"/>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="56"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -2299,8 +3133,8 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="51"/>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="56"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -2308,8 +3142,8 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="51"/>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="56"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -2317,8 +3151,8 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="55">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="47">
         <v>3</v>
       </c>
       <c r="B10" s="9"/>
@@ -2328,8 +3162,8 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="55"/>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="47"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -2337,8 +3171,8 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="55"/>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="47"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -2346,8 +3180,8 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="55"/>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="47"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2355,8 +3189,8 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="55">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="47">
         <v>4</v>
       </c>
       <c r="B14" s="9"/>
@@ -2366,8 +3200,8 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="55"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="47"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2375,8 +3209,8 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="55"/>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -2384,8 +3218,8 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="55"/>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="47"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -2393,47 +3227,47 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="12"/>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="13"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/기획문서/UDP_PlayerWeapons.xlsx
+++ b/기획문서/UDP_PlayerWeapons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubProject\UDP\기획문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\UDP\기획문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C529A0-8360-46B5-9951-758209D99313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B7B481-0065-475B-813F-18CAA9FB4A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="근거리" sheetId="4" r:id="rId1"/>
@@ -193,126 +193,285 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>폭발탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 두 번의 데미지를 주는 탄환을 발사하는 주포입니다. 적중한 탄환은 2초 후 한 번 더 폭발하여, 탄환 피해량의 20%/30%/40%/50%만큼 추가 피해를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 피해량: (10) + (10) + (15 + 7.5) + (20 + 10 + 10 + 5) = 87.5</t>
+  </si>
+  <si>
+    <t>적의 체력은 100~200, 4번~6번의 공격을 맞으면 적이 사망한다고 가정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최대 피해량: (10) + (10) + (48 + 24) + ( 56 + 28 + 28 + 14) = 218 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초 동안 적의 공격을 막아주는 방어막을 생성합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5초 동안 적에게 입힌 피해만큼 내구도를 회복합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타오르는 힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 중 24거리 이내의 적 포착 시 추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 중 반지름 20거리 이내의 적 포착 시 추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 중 28거리 이내의 적 포착 시 추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 중 32거리 이내의 적 포착 시 추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발 범위 45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발 범위 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 중 20거리 이내의 적 포착 시 폭발, 폭발 범위 35(반지름) 폭발에 휘말린 적은 폭발 방향으로 밀려남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발 범위 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탄 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_weapon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_weapon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_weapon_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_weapon_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_skill_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_skill_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>사슬 갈고리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어가 바라보는 방향으로 20/30/40/50의 속도로 사슬 갈고리를 던지며, 적중 시 플레이어가 60의 속도로 적중한 적에게 이동합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>폭발탄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>산탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탄 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발당 피해량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본이 되는 산탄 형태의 주포입니다. 레벨이 높아질수록 피해량과 발사되는 포탄의 수가 증가합니다.</t>
+  </si>
+  <si>
+    <t>적의 장갑과 외부 보호 장치를 부식시키는 탄환을 발사하는 주포입니다. 적중한 적에게 가하는 피해량이 3초 동안 50% 증가합니다.</t>
+  </si>
+  <si>
+    <t>특이사항/설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>적에게 두 번의 데미지를 주는 탄환을 발사하는 주포입니다. 적중한 탄환은 2초 후 한 번 더 폭발하여, 탄환 피해량의 20%/30%/40%/50%만큼 추가 피해를 입힙니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소 피해량: (10) + (10) + (15 + 7.5) + (20 + 10 + 10 + 5) = 87.5</t>
-  </si>
-  <si>
-    <t>적의 체력은 100~200, 4번~6번의 공격을 맞으면 적이 사망한다고 가정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">최대 피해량: (10) + (10) + (48 + 24) + ( 56 + 28 + 28 + 14) = 218 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어막</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 바라보는 방향으로 사슬 갈고리를 던져, 적중 시 플레이어가 60의 속도로 적중한 적에게 이동합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_weapon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_weapon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_weapon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_weapon_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_weapon_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_weapon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_weapon_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_weapon_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_skill_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_skill_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_skill_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_skill_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음에 사용하는 주포의 쿨타임을 1회 제거합니다.</t>
   </si>
   <si>
     <t>3초 동안 적의 공격을 막아주는 방어막을 생성합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5초 동안 적에게 입힌 피해만큼 내구도를 회복합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타오르는 힘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동 중 24거리 이내의 적 포착 시 추적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동 중 반지름 20거리 이내의 적 포착 시 추적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동 중 28거리 이내의 적 포착 시 추적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동 중 32거리 이내의 적 포착 시 추적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발 범위 45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발 범위 50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동 중 20거리 이내의 적 포착 시 폭발, 폭발 범위 35(반지름) 폭발에 휘말린 적은 폭발 방향으로 밀려남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발 범위 40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포탄 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>melee_weapon_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>melee_weapon_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>melee_weapon_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>melee_weapon_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>melee_skill_Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>melee_skill_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본탄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사슬 갈고리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발탄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산탄</t>
+  </si>
+  <si>
+    <t>최대 체력의 20%를 회복합니다.</t>
+  </si>
+  <si>
+    <t>쿨타임(초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도를 5초 동안 최고속도에 도달합니다. 긴급 탈출을 사용하는 동안 연료를 사용하지 않습니다</t>
+  </si>
+  <si>
+    <t>이동속도를 5초 동안 최고속도에 도달합니다. 긴급 탈출을 사용하는 동안 연료를 사용하지 않습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 주변 20거리 이내 모든 적 포탄의 이동을 멈춥니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크 매터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철갑소이탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 유도 어뢰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP 자폭탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라즈마 광선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4+(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3+(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+(레벨)*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-(레벨)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -320,15 +479,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격대상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포탄 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발당 피해량</t>
+    <t>광역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -336,165 +487,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본이 되는 산탄 형태의 주포입니다. 레벨이 높아질수록 피해량과 발사되는 포탄의 수가 증가합니다.</t>
-  </si>
-  <si>
-    <t>적의 장갑과 외부 보호 장치를 부식시키는 탄환을 발사하는 주포입니다. 적중한 적에게 가하는 피해량이 3초 동안 50% 증가합니다.</t>
-  </si>
-  <si>
-    <t>특이사항/설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적에게 두 번의 데미지를 주는 탄환을 발사하는 주포입니다. 적중한 탄환은 2초 후 한 번 더 폭발하여, 탄환 피해량의 20%/30%/40%/50%만큼 추가 피해를 입힙니다.</t>
-  </si>
-  <si>
-    <t>플레이어가 바라보는 방향으로 사슬 갈고리를 던져, 적중 시 플레이어가 60의 속도로 적중한 적에게 이동합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle_weapon_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle_weapon_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_weapon_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle_weapon_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle_weapon_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_weapon_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_weapon_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_weapon_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle_skill_Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle_skill_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_skill_Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_skill_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음에 사용하는 주포의 쿨타임을 1회 제거합니다.</t>
-  </si>
-  <si>
-    <t>3초 동안 적의 공격을 막아주는 방어막을 생성합니다.</t>
-  </si>
-  <si>
-    <t>5초 동안 적에게 입힌 피해만큼 내구도를 회복합니다.</t>
-  </si>
-  <si>
-    <t>최대 체력의 20%를 회복합니다.</t>
-  </si>
-  <si>
-    <t>쿨타임(초)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도를 5초 동안 최고속도에 도달합니다. 긴급 탈출을 사용하는 동안 연료를 사용하지 않습니다</t>
-  </si>
-  <si>
-    <t>이동속도를 5초 동안 최고속도에 도달합니다. 긴급 탈출을 사용하는 동안 연료를 사용하지 않습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 주변 20거리 이내 모든 적 포탄의 이동을 멈춥니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다크 매터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연속 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철갑소이탄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근접 유도 어뢰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMP 자폭탄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플라즈마 광선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4+(레벨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3+(레벨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2+(레벨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10+(레벨)*10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-(레벨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -573,6 +565,14 @@
   </si>
   <si>
     <t>작성자: 5645866 구기현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초강력 끈끈이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 바라보는 방향으로 20/30/40/50의 속도로 초강력 끈끈이를 던지며, 적중 시 플레이어가 60의 속도로 적중한 적에게 이동합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -941,15 +941,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -974,9 +974,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -995,12 +992,36 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1009,27 +1030,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1367,28 +1367,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9994DB1-7A88-429D-9CFE-E67689A4F62A}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="7" max="7" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="35">
         <v>1</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="35">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E3" s="4">
         <v>5</v>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="4">
@@ -1449,7 +1449,7 @@
       <c r="G4" s="42"/>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="4">
@@ -1462,7 +1462,7 @@
       <c r="F5" s="36"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="4">
@@ -1475,7 +1475,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="43"/>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="28">
         <v>2</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="35">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E7" s="35">
         <v>5</v>
@@ -1498,7 +1498,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="28"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -1507,9 +1507,9 @@
       <c r="F8" s="4">
         <v>5</v>
       </c>
-      <c r="G8" s="45"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="46"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="28"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -1518,9 +1518,9 @@
       <c r="F9" s="4">
         <v>4</v>
       </c>
-      <c r="G9" s="45"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="46"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="28"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -1529,20 +1529,20 @@
       <c r="F10" s="10">
         <v>3</v>
       </c>
-      <c r="G10" s="46"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="47"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="28">
         <v>3</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="C11" s="35">
         <v>10</v>
       </c>
       <c r="D11" s="4">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E11" s="35">
         <v>1</v>
@@ -1551,15 +1551,15 @@
         <v>6</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="28"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
       <c r="D12" s="4">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="4">
@@ -1567,12 +1567,12 @@
       </c>
       <c r="G12" s="39"/>
     </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="28"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
       <c r="D13" s="4">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="4">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="G13" s="39"/>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A14" s="28"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
       <c r="D14" s="10">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="4">
@@ -1593,18 +1593,18 @@
       </c>
       <c r="G14" s="40"/>
     </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A15" s="28">
         <v>4</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4">
         <v>5</v>
       </c>
       <c r="D15" s="35">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E15" s="4">
         <v>4</v>
@@ -1613,10 +1613,10 @@
         <v>8</v>
       </c>
       <c r="G15" s="41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A16" s="28"/>
       <c r="B16" s="36"/>
       <c r="C16" s="4">
@@ -1629,7 +1629,7 @@
       <c r="F16" s="36"/>
       <c r="G16" s="42"/>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A17" s="28"/>
       <c r="B17" s="36"/>
       <c r="C17" s="4">
@@ -1642,7 +1642,7 @@
       <c r="F17" s="36"/>
       <c r="G17" s="42"/>
     </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A18" s="28"/>
       <c r="B18" s="37"/>
       <c r="C18" s="4">
@@ -1655,12 +1655,12 @@
       <c r="F18" s="37"/>
       <c r="G18" s="43"/>
       <c r="H18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A19" s="44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" s="44"/>
       <c r="C19" s="44"/>
@@ -1669,10 +1669,10 @@
       <c r="F19" s="44"/>
       <c r="G19" s="44"/>
       <c r="H19" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -1687,18 +1687,18 @@
       <c r="F20" s="30"/>
       <c r="G20" s="31"/>
       <c r="H20" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
@@ -1708,15 +1708,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -1764,28 +1764,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EF9496-DE58-419F-893B-F291F26CE53B}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="7" max="7" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1808,74 +1808,74 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="35">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
-        <v>97</v>
+      <c r="B3" s="56" t="s">
+        <v>95</v>
       </c>
       <c r="C3" s="6">
         <v>25</v>
       </c>
       <c r="D3" s="35">
-        <v>25</v>
-      </c>
-      <c r="E3" s="57">
+        <v>75</v>
+      </c>
+      <c r="E3" s="56">
         <v>1</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="59">
         <v>1</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="59" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="36"/>
-      <c r="B4" s="58"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="6">
         <v>35</v>
       </c>
       <c r="D4" s="36"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="58"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="57"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="57"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="36"/>
-      <c r="B5" s="58"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="6">
         <v>40</v>
       </c>
       <c r="D5" s="36"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="58"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="57"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="57"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="37"/>
-      <c r="B6" s="59"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="6">
         <v>50</v>
       </c>
       <c r="D6" s="37"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="59"/>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="56">
+      <c r="E6" s="58"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="58"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="71">
         <v>2</v>
       </c>
-      <c r="B7" s="69" t="s">
-        <v>98</v>
+      <c r="B7" s="63" t="s">
+        <v>96</v>
       </c>
       <c r="C7" s="11">
         <v>15</v>
       </c>
       <c r="D7" s="52">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E7" s="52">
         <v>1</v>
@@ -1887,45 +1887,45 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
-      <c r="B8" s="70"/>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="71"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="11">
         <v>20</v>
       </c>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56"/>
-      <c r="B9" s="70"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="71"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="11">
         <v>25</v>
       </c>
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="56"/>
-      <c r="B10" s="71"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="71"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="11">
         <v>30</v>
       </c>
       <c r="D10" s="54"/>
       <c r="E10" s="54"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47">
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="62">
         <v>3</v>
       </c>
-      <c r="B11" s="72" t="s">
-        <v>99</v>
+      <c r="B11" s="66" t="s">
+        <v>97</v>
       </c>
       <c r="C11" s="11">
         <v>50</v>
@@ -1943,51 +1943,51 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
-      <c r="B12" s="73"/>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="62"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="11">
         <v>75</v>
       </c>
       <c r="D12" s="53"/>
       <c r="E12" s="53"/>
-      <c r="F12" s="63"/>
+      <c r="F12" s="69"/>
       <c r="G12" s="53"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
-      <c r="B13" s="73"/>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="62"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="11">
         <v>90</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="53"/>
-      <c r="F13" s="63"/>
+      <c r="F13" s="69"/>
       <c r="G13" s="53"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="74"/>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="62"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="11">
         <v>120</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
-      <c r="F14" s="64"/>
+      <c r="F14" s="70"/>
       <c r="G14" s="54"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47">
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="62">
         <v>4</v>
       </c>
-      <c r="B15" s="72" t="s">
-        <v>100</v>
+      <c r="B15" s="66" t="s">
+        <v>98</v>
       </c>
       <c r="C15" s="6">
         <v>25</v>
       </c>
       <c r="D15" s="35">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E15" s="52">
         <v>4</v>
@@ -1999,9 +1999,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
-      <c r="B16" s="73"/>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="62"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="6">
         <v>35</v>
       </c>
@@ -2010,9 +2010,9 @@
       <c r="F16" s="53"/>
       <c r="G16" s="53"/>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
-      <c r="B17" s="73"/>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="62"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="6">
         <v>40</v>
       </c>
@@ -2021,9 +2021,9 @@
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
     </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
-      <c r="B18" s="74"/>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="62"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="6">
         <v>50</v>
       </c>
@@ -2032,7 +2032,7 @@
       <c r="F18" s="54"/>
       <c r="G18" s="54"/>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -2047,10 +2047,10 @@
       <c r="F20" s="30"/>
       <c r="G20" s="31"/>
       <c r="H20" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D22" s="50"/>
       <c r="E22" s="50"/>
@@ -2126,28 +2126,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C119C-42F6-4CF6-ADF9-8275A6751DB2}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="7" max="7" width="45.625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="35">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="E3" s="35">
         <v>4</v>
@@ -2193,7 +2193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="28"/>
       <c r="B4" s="36"/>
       <c r="C4" s="14">
@@ -2204,7 +2204,7 @@
       <c r="F4" s="36"/>
       <c r="G4" s="42"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="28"/>
       <c r="B5" s="36"/>
       <c r="C5" s="14">
@@ -2215,7 +2215,7 @@
       <c r="F5" s="36"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="28"/>
       <c r="B6" s="37"/>
       <c r="C6" s="14">
@@ -2226,7 +2226,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="43"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="28">
         <v>2</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="35">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="E7" s="35">
         <v>2</v>
@@ -2246,10 +2246,10 @@
         <v>6</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="28"/>
       <c r="B8" s="36"/>
       <c r="C8" s="14">
@@ -2259,10 +2259,10 @@
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
       <c r="G8" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="28"/>
       <c r="B9" s="36"/>
       <c r="C9" s="14">
@@ -2272,10 +2272,10 @@
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
       <c r="G9" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="28"/>
       <c r="B10" s="37"/>
       <c r="C10" s="14">
@@ -2285,10 +2285,10 @@
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
       <c r="G10" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="28">
         <v>3</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="35">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E11" s="35">
         <v>1</v>
@@ -2308,10 +2308,10 @@
         <v>12</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="28"/>
       <c r="B12" s="36"/>
       <c r="C12" s="14">
@@ -2323,10 +2323,10 @@
         <v>11</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="28"/>
       <c r="B13" s="36"/>
       <c r="C13" s="14">
@@ -2338,10 +2338,10 @@
         <v>10</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A14" s="28"/>
       <c r="B14" s="37"/>
       <c r="C14" s="14">
@@ -2353,10 +2353,10 @@
         <v>9</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A15" s="28">
         <v>4</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A16" s="28"/>
       <c r="B16" s="36"/>
       <c r="C16" s="14">
@@ -2390,7 +2390,7 @@
       <c r="F16" s="36"/>
       <c r="G16" s="42"/>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A17" s="28"/>
       <c r="B17" s="36"/>
       <c r="C17" s="14">
@@ -2401,7 +2401,7 @@
       <c r="F17" s="36"/>
       <c r="G17" s="42"/>
     </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A18" s="28"/>
       <c r="B18" s="37"/>
       <c r="C18" s="14">
@@ -2412,7 +2412,7 @@
       <c r="F18" s="37"/>
       <c r="G18" s="43"/>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
@@ -2427,41 +2427,41 @@
       <c r="F20" s="30"/>
       <c r="G20" s="31"/>
       <c r="H20" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="74"/>
       <c r="H21" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="74"/>
       <c r="H22" s="13">
         <v>12</v>
       </c>
@@ -2507,7 +2507,7 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="4" width="8.625" customWidth="1"/>
@@ -2516,58 +2516,58 @@
     <col min="9" max="9" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.6">
       <c r="C1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G2" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A3" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>56</v>
-      </c>
       <c r="B3" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E3" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="26" t="s">
         <v>105</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>107</v>
       </c>
       <c r="G3" s="26">
         <v>20</v>
@@ -2576,21 +2576,21 @@
         <v>3</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A4" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E4" s="26">
         <v>5</v>
@@ -2602,24 +2602,24 @@
         <v>25</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A5" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E5" s="26">
         <v>1</v>
@@ -2628,33 +2628,33 @@
         <v>10</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A6" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>66</v>
-      </c>
       <c r="D6" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G6" s="26">
         <v>20</v>
@@ -2663,27 +2663,27 @@
         <v>8</v>
       </c>
       <c r="I6" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.6">
+      <c r="A7" s="21" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
-        <v>76</v>
-      </c>
       <c r="B7" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>112</v>
       </c>
       <c r="E7" s="26">
         <v>1</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G7" s="26">
         <v>25</v>
@@ -2692,27 +2692,27 @@
         <v>1</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A8" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>112</v>
       </c>
       <c r="E8" s="26">
         <v>1</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G8" s="27">
         <v>15</v>
@@ -2721,56 +2721,56 @@
         <v>11</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A9" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>113</v>
-      </c>
       <c r="F9" s="26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H9" s="26">
         <v>13</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A10" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>112</v>
       </c>
       <c r="E10" s="26">
         <v>4</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G10" s="26">
         <v>25</v>
@@ -2779,27 +2779,27 @@
         <v>10</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A11" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C11" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>112</v>
       </c>
       <c r="E11" s="27">
         <v>4</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G11" s="26">
         <v>25</v>
@@ -2808,27 +2808,27 @@
         <v>2</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A12" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C12" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>112</v>
       </c>
       <c r="E12" s="26">
         <v>2</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G12" s="26">
         <v>30</v>
@@ -2837,82 +2837,82 @@
         <v>6</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K12" s="25"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A13" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E13" s="26">
         <v>1</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G13" s="26">
         <v>20</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A14" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H14" s="26">
         <v>12</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K14" s="25"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.6">
       <c r="K15" s="25"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A17" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>9</v>
@@ -2923,18 +2923,18 @@
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A18" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="22">
         <v>12</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -2942,18 +2942,18 @@
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A19" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="22">
         <v>15</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -2961,9 +2961,9 @@
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A20" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>28</v>
@@ -2972,7 +2972,7 @@
         <v>20</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -2980,9 +2980,9 @@
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A21" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>29</v>
@@ -2991,7 +2991,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
@@ -2999,9 +2999,9 @@
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A22" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>14</v>
@@ -3010,7 +3010,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -3018,9 +3018,9 @@
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A23" s="22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>12</v>
@@ -3029,7 +3029,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3046,13 +3046,13 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="7" max="7" width="45.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="35">
         <v>1</v>
       </c>
@@ -3086,7 +3086,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="36"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -3095,7 +3095,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="36"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -3104,7 +3104,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="37"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -3113,8 +3113,8 @@
       <c r="F5" s="6"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="56">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A6" s="71">
         <v>2</v>
       </c>
       <c r="B6" s="2"/>
@@ -3124,8 +3124,8 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="56"/>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="71"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -3133,8 +3133,8 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="71"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -3142,8 +3142,8 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56"/>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="71"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -3151,8 +3151,8 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="62">
         <v>3</v>
       </c>
       <c r="B10" s="9"/>
@@ -3162,8 +3162,8 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="62"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -3171,8 +3171,8 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="62"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -3180,8 +3180,8 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="62"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -3189,8 +3189,8 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="62">
         <v>4</v>
       </c>
       <c r="B14" s="9"/>
@@ -3200,8 +3200,8 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="62"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -3209,8 +3209,8 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="62"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -3218,8 +3218,8 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="62"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -3227,7 +3227,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
@@ -3257,7 +3257,7 @@
       <c r="G20" s="34"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>

--- a/기획문서/UDP_PlayerWeapons.xlsx
+++ b/기획문서/UDP_PlayerWeapons.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\UDP\기획문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C\UDP\기획문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B7B481-0065-475B-813F-18CAA9FB4A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992602B5-F6FA-40D4-9E0B-8AA04DE21F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="근거리" sheetId="4" r:id="rId1"/>
@@ -104,15 +104,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플라즈마 광선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMP 자폭탄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -126,10 +118,6 @@
   </si>
   <si>
     <t>쿨타임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근접 유도 어뢰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -568,11 +556,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>초강력 끈끈이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>플레이어가 바라보는 방향으로 20/30/40/50의 속도로 초강력 끈끈이를 던지며, 적중 시 플레이어가 60의 속도로 적중한 적에게 이동합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중력탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 유도탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP자폭탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라즈마 포</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -890,6 +890,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -909,15 +936,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -929,26 +947,68 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -961,66 +1021,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1368,27 +1368,27 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="50.625" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="50.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1411,335 +1411,323 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="35">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>31</v>
+      <c r="B3" s="32" t="s">
+        <v>28</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="32">
         <v>60</v>
       </c>
       <c r="E3" s="4">
         <v>5</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="32">
         <v>3</v>
       </c>
-      <c r="G3" s="41" t="s">
-        <v>32</v>
+      <c r="G3" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="4">
         <v>6</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="42"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="4">
         <v>5</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="4">
         <v>7</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="4">
         <v>6</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="4">
         <v>8</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="43"/>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="28">
+      <c r="F6" s="34"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="37">
         <v>2</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="35">
+      <c r="B7" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="32">
         <v>2</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="32">
         <v>75</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="32">
         <v>5</v>
       </c>
       <c r="F7" s="4">
         <v>6</v>
       </c>
-      <c r="G7" s="41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="28"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
+      <c r="G7" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="37"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="4">
         <v>5</v>
       </c>
-      <c r="G8" s="46"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="28"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="37"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="4">
         <v>4</v>
       </c>
-      <c r="G9" s="46"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="28"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="37"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="10">
         <v>3</v>
       </c>
-      <c r="G10" s="47"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="28">
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="37">
         <v>3</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="35">
+      <c r="B11" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="32">
         <v>10</v>
       </c>
       <c r="D11" s="4">
         <v>60</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="32">
         <v>1</v>
       </c>
       <c r="F11" s="4">
         <v>6</v>
       </c>
-      <c r="G11" s="38" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="28"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+      <c r="G11" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="37"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="4">
         <v>90</v>
       </c>
-      <c r="E12" s="36"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="4">
         <v>5</v>
       </c>
-      <c r="G12" s="39"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="28"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
+      <c r="G12" s="45"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="37"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="4">
         <v>120</v>
       </c>
-      <c r="E13" s="36"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="4">
         <v>4</v>
       </c>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="28"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
+      <c r="G13" s="45"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="37"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="10">
         <v>150</v>
       </c>
-      <c r="E14" s="37"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="4">
         <v>3</v>
       </c>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="28">
+      <c r="G14" s="46"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="37">
         <v>4</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>35</v>
+      <c r="B15" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="C15" s="4">
         <v>5</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="32">
         <v>60</v>
       </c>
       <c r="E15" s="4">
         <v>4</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="32">
         <v>8</v>
       </c>
-      <c r="G15" s="41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="28"/>
-      <c r="B16" s="36"/>
+      <c r="G15" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="37"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="4">
         <v>6</v>
       </c>
-      <c r="D16" s="36"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="4">
         <v>5</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="42"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="28"/>
-      <c r="B17" s="36"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="37"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="4">
         <v>7</v>
       </c>
-      <c r="D17" s="36"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="4">
         <v>6</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="42"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="28"/>
-      <c r="B18" s="37"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="37"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="4">
         <v>8</v>
       </c>
-      <c r="D18" s="37"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="4">
         <v>7</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="43"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="31"/>
       <c r="H18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
       <c r="H19" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
+        <v>37</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
       <c r="H21" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
+        <v>40</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="13">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="F3:F6"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="C20:G20"/>
@@ -1754,6 +1742,18 @@
     <mergeCell ref="F15:F18"/>
     <mergeCell ref="G15:G18"/>
     <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="F3:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1764,28 +1764,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EF9496-DE58-419F-893B-F291F26CE53B}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="45.625" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="45.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1808,286 +1808,298 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="35">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="56" t="s">
-        <v>95</v>
+      <c r="B3" s="48" t="s">
+        <v>92</v>
       </c>
       <c r="C3" s="6">
         <v>25</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="32">
         <v>75</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="48">
         <v>1</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="57">
         <v>1</v>
       </c>
-      <c r="G3" s="59" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="36"/>
-      <c r="B4" s="57"/>
+      <c r="G3" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="33"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="6">
         <v>35</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="57"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="36"/>
-      <c r="B5" s="57"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="49"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="33"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="6">
         <v>40</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="57"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="37"/>
-      <c r="B6" s="58"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="49"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="34"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="6">
         <v>50</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="58"/>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="71">
+      <c r="D6" s="34"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="50"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="64">
         <v>2</v>
       </c>
-      <c r="B7" s="63" t="s">
-        <v>96</v>
+      <c r="B7" s="51" t="s">
+        <v>93</v>
       </c>
       <c r="C7" s="11">
         <v>15</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="58">
         <v>60</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="58">
         <v>1</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="61">
         <v>11</v>
       </c>
-      <c r="G7" s="55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="71"/>
-      <c r="B8" s="64"/>
+      <c r="G7" s="61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="64"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="11">
         <v>20</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="71"/>
-      <c r="B9" s="64"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="64"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="11">
         <v>25</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="71"/>
-      <c r="B10" s="65"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="64"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="11">
         <v>30</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="62">
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="67">
         <v>3</v>
       </c>
-      <c r="B11" s="66" t="s">
-        <v>97</v>
+      <c r="B11" s="54" t="s">
+        <v>94</v>
       </c>
       <c r="C11" s="11">
         <v>50</v>
       </c>
-      <c r="D11" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="52">
+      <c r="D11" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="58">
         <v>1</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="61">
         <v>13</v>
       </c>
-      <c r="G11" s="55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="62"/>
-      <c r="B12" s="67"/>
+      <c r="G11" s="61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="67"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="11">
         <v>75</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="53"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="62"/>
-      <c r="B13" s="67"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="59"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="67"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="11">
         <v>90</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="53"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="62"/>
-      <c r="B14" s="68"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="59"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="67"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="11">
         <v>120</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="54"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="62">
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="60"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="67">
         <v>4</v>
       </c>
-      <c r="B15" s="66" t="s">
-        <v>98</v>
+      <c r="B15" s="54" t="s">
+        <v>95</v>
       </c>
       <c r="C15" s="6">
         <v>25</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="32">
         <v>75</v>
       </c>
-      <c r="E15" s="52">
+      <c r="E15" s="58">
         <v>4</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="58">
         <v>10</v>
       </c>
-      <c r="G15" s="55" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="62"/>
-      <c r="B16" s="67"/>
+      <c r="G15" s="61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="67"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="6">
         <v>35</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="62"/>
-      <c r="B17" s="67"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="67"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="6">
         <v>40</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="62"/>
-      <c r="B18" s="68"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="67"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="6">
         <v>50</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="D18" s="34"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
+        <v>25</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
+        <v>26</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="19">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B10"/>
@@ -2104,18 +2116,6 @@
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2126,28 +2126,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C119C-42F6-4CF6-ADF9-8275A6751DB2}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="45.625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="45.58203125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2170,267 +2170,267 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="28">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>20</v>
+      <c r="B3" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="C3" s="14">
         <v>6</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="32">
         <v>75</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="32">
         <v>4</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="32">
         <v>2</v>
       </c>
-      <c r="G3" s="41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="28"/>
-      <c r="B4" s="36"/>
+      <c r="G3" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="37"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="14">
         <v>8</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="28"/>
-      <c r="B5" s="36"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="37"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="14">
         <v>10</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="28"/>
-      <c r="B6" s="37"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="37"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="14">
         <v>12</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="43"/>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="28">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="37">
         <v>2</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>22</v>
+      <c r="B7" s="32" t="s">
+        <v>131</v>
       </c>
       <c r="C7" s="14">
         <v>12</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="32">
         <v>90</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="32">
         <v>2</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="32">
         <v>6</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="28"/>
-      <c r="B8" s="36"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="37"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="14">
         <v>16</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="28"/>
-      <c r="B9" s="36"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="37"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="14">
         <v>20</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="28"/>
-      <c r="B10" s="37"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="37"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="14">
         <v>24</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="28">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="37">
         <v>3</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>18</v>
+      <c r="B11" s="32" t="s">
+        <v>132</v>
       </c>
       <c r="C11" s="14">
         <v>10</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="32">
         <v>60</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="32">
         <v>1</v>
       </c>
       <c r="F11" s="4">
         <v>12</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="28"/>
-      <c r="B12" s="36"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="37"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="14">
         <v>11</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="4">
         <v>11</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="28"/>
-      <c r="B13" s="36"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="37"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="14">
         <v>12</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="4">
         <v>10</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="28"/>
-      <c r="B14" s="37"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="37"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="14">
         <v>13</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="4">
         <v>9</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="28">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="37">
         <v>4</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>16</v>
+      <c r="B15" s="32" t="s">
+        <v>133</v>
       </c>
       <c r="C15" s="14">
         <v>48</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="35">
+      <c r="D15" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="32">
         <v>1</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="32">
         <v>12</v>
       </c>
-      <c r="G15" s="41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="28"/>
-      <c r="B16" s="36"/>
+      <c r="G15" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="37"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="14">
         <v>60</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="42"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="28"/>
-      <c r="B17" s="36"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="37"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="14">
         <v>72</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="42"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="28"/>
-      <c r="B18" s="37"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="37"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="14">
         <v>84</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="43"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
@@ -2468,15 +2468,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
@@ -2493,6 +2484,15 @@
     <mergeCell ref="D11:D14"/>
     <mergeCell ref="G15:G18"/>
     <mergeCell ref="G3:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2507,67 +2507,67 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="8.625" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="4" width="8.58203125" customWidth="1"/>
+    <col min="5" max="7" width="10.58203125" customWidth="1"/>
+    <col min="8" max="8" width="8.58203125" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>63</v>
-      </c>
       <c r="E3" s="26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G3" s="26">
         <v>20</v>
@@ -2576,21 +2576,21 @@
         <v>3</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E4" s="26">
         <v>5</v>
@@ -2602,24 +2602,24 @@
         <v>25</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B5" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>64</v>
-      </c>
       <c r="D5" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E5" s="26">
         <v>1</v>
@@ -2628,33 +2628,33 @@
         <v>10</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G6" s="26">
         <v>20</v>
@@ -2663,27 +2663,27 @@
         <v>8</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E7" s="26">
         <v>1</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G7" s="26">
         <v>25</v>
@@ -2692,27 +2692,27 @@
         <v>1</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.6">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E8" s="26">
         <v>1</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G8" s="27">
         <v>15</v>
@@ -2721,56 +2721,56 @@
         <v>11</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="E9" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>115</v>
-      </c>
       <c r="G9" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H9" s="26">
         <v>13</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E10" s="26">
         <v>4</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G10" s="26">
         <v>25</v>
@@ -2779,27 +2779,27 @@
         <v>10</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E11" s="27">
         <v>4</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G11" s="26">
         <v>25</v>
@@ -2808,27 +2808,27 @@
         <v>2</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E12" s="26">
         <v>2</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G12" s="26">
         <v>30</v>
@@ -2837,82 +2837,82 @@
         <v>6</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K12" s="25"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E13" s="26">
         <v>1</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G13" s="26">
         <v>20</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>111</v>
-      </c>
       <c r="F14" s="26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H14" s="26">
         <v>12</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K14" s="25"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="K15" s="25"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>9</v>
@@ -2923,18 +2923,18 @@
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" s="22">
         <v>12</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -2942,18 +2942,18 @@
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="22">
         <v>15</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -2961,18 +2961,18 @@
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" s="22">
         <v>20</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -2980,18 +2980,18 @@
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C21" s="22">
         <v>15</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
@@ -2999,9 +2999,9 @@
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="22" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>14</v>
@@ -3010,7 +3010,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -3018,9 +3018,9 @@
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>12</v>
@@ -3029,7 +3029,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3046,13 +3046,13 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="45.625" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="45.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3075,8 +3075,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="35">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
@@ -3086,8 +3086,8 @@
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="36"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="33"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -3095,8 +3095,8 @@
       <c r="F3" s="6"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="36"/>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="33"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -3104,8 +3104,8 @@
       <c r="F4" s="6"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="37"/>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="34"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3113,8 +3113,8 @@
       <c r="F5" s="6"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="71">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="64">
         <v>2</v>
       </c>
       <c r="B6" s="2"/>
@@ -3124,8 +3124,8 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="71"/>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="64"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -3133,8 +3133,8 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="71"/>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="64"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -3142,8 +3142,8 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="71"/>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="64"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -3151,8 +3151,8 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="62">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="67">
         <v>3</v>
       </c>
       <c r="B10" s="9"/>
@@ -3162,8 +3162,8 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="62"/>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="67"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -3171,8 +3171,8 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="62"/>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="67"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -3180,8 +3180,8 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="62"/>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="67"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -3189,8 +3189,8 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="62">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="67">
         <v>4</v>
       </c>
       <c r="B14" s="9"/>
@@ -3200,8 +3200,8 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="62"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="67"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -3209,8 +3209,8 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="62"/>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="67"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -3218,8 +3218,8 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="62"/>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="67"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -3227,46 +3227,46 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
       <c r="H21" s="12"/>
     </row>
   </sheetData>

--- a/기획문서/UDP_PlayerWeapons.xlsx
+++ b/기획문서/UDP_PlayerWeapons.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GithubProject\UDP\기획문서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C\UDP\기획문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C529A0-8360-46B5-9951-758209D99313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992602B5-F6FA-40D4-9E0B-8AA04DE21F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{62910332-10B0-4234-AE16-77750EBC7CE9}"/>
   </bookViews>
   <sheets>
     <sheet name="근거리" sheetId="4" r:id="rId1"/>
@@ -104,15 +104,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플라즈마 광선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMP 자폭탄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -126,10 +118,6 @@
   </si>
   <si>
     <t>쿨타임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근접 유도 어뢰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -193,126 +181,285 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>폭발탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 두 번의 데미지를 주는 탄환을 발사하는 주포입니다. 적중한 탄환은 2초 후 한 번 더 폭발하여, 탄환 피해량의 20%/30%/40%/50%만큼 추가 피해를 입힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소 피해량: (10) + (10) + (15 + 7.5) + (20 + 10 + 10 + 5) = 87.5</t>
+  </si>
+  <si>
+    <t>적의 체력은 100~200, 4번~6번의 공격을 맞으면 적이 사망한다고 가정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">최대 피해량: (10) + (10) + (48 + 24) + ( 56 + 28 + 28 + 14) = 218 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초 동안 적의 공격을 막아주는 방어막을 생성합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5초 동안 적에게 입힌 피해만큼 내구도를 회복합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타오르는 힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 중 24거리 이내의 적 포착 시 추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 중 반지름 20거리 이내의 적 포착 시 추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 중 28거리 이내의 적 포착 시 추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 중 32거리 이내의 적 포착 시 추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발 범위 45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발 범위 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 중 20거리 이내의 적 포착 시 폭발, 폭발 범위 35(반지름) 폭발에 휘말린 적은 폭발 방향으로 밀려남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭발 범위 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탄 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_weapon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_weapon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_weapon_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_weapon_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_skill_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melee_skill_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>사슬 갈고리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어가 바라보는 방향으로 20/30/40/50의 속도로 사슬 갈고리를 던지며, 적중 시 플레이어가 60의 속도로 적중한 적에게 이동합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>폭발탄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>산탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격대상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탄 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발당 피해량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본이 되는 산탄 형태의 주포입니다. 레벨이 높아질수록 피해량과 발사되는 포탄의 수가 증가합니다.</t>
+  </si>
+  <si>
+    <t>적의 장갑과 외부 보호 장치를 부식시키는 탄환을 발사하는 주포입니다. 적중한 적에게 가하는 피해량이 3초 동안 50% 증가합니다.</t>
+  </si>
+  <si>
+    <t>특이사항/설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>적에게 두 번의 데미지를 주는 탄환을 발사하는 주포입니다. 적중한 탄환은 2초 후 한 번 더 폭발하여, 탄환 피해량의 20%/30%/40%/50%만큼 추가 피해를 입힙니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>최소 피해량: (10) + (10) + (15 + 7.5) + (20 + 10 + 10 + 5) = 87.5</t>
-  </si>
-  <si>
-    <t>적의 체력은 100~200, 4번~6번의 공격을 맞으면 적이 사망한다고 가정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">최대 피해량: (10) + (10) + (48 + 24) + ( 56 + 28 + 28 + 14) = 218 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어막</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 바라보는 방향으로 사슬 갈고리를 던져, 적중 시 플레이어가 60의 속도로 적중한 적에게 이동합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_weapon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_weapon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_weapon_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_weapon_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_weapon_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_weapon_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_weapon_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_weapon_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_skill_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>middle_skill_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_skill_Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range_skill_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음에 사용하는 주포의 쿨타임을 1회 제거합니다.</t>
   </si>
   <si>
     <t>3초 동안 적의 공격을 막아주는 방어막을 생성합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5초 동안 적에게 입힌 피해만큼 내구도를 회복합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타오르는 힘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동 중 24거리 이내의 적 포착 시 추적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동 중 반지름 20거리 이내의 적 포착 시 추적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동 중 28거리 이내의 적 포착 시 추적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동 중 32거리 이내의 적 포착 시 추적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발 범위 45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발 범위 50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동 중 20거리 이내의 적 포착 시 폭발, 폭발 범위 35(반지름) 폭발에 휘말린 적은 폭발 방향으로 밀려남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발 범위 40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포탄 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>melee_weapon_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>melee_weapon_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>melee_weapon_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>melee_weapon_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>melee_skill_Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>melee_skill_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본탄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사슬 갈고리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>폭발탄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>산탄</t>
+  </si>
+  <si>
+    <t>최대 체력의 20%를 회복합니다.</t>
+  </si>
+  <si>
+    <t>쿨타임(초)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도를 5초 동안 최고속도에 도달합니다. 긴급 탈출을 사용하는 동안 연료를 사용하지 않습니다</t>
+  </si>
+  <si>
+    <t>이동속도를 5초 동안 최고속도에 도달합니다. 긴급 탈출을 사용하는 동안 연료를 사용하지 않습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 주변 20거리 이내 모든 적 포탄의 이동을 멈춥니다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다크 매터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철갑소이탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 유도 어뢰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP 자폭탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라즈마 광선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4+(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3+(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+(레벨)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+(레벨)*10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-(레벨)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -320,15 +467,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격대상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포탄 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발당 피해량</t>
+    <t>광역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -336,165 +475,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기본이 되는 산탄 형태의 주포입니다. 레벨이 높아질수록 피해량과 발사되는 포탄의 수가 증가합니다.</t>
-  </si>
-  <si>
-    <t>적의 장갑과 외부 보호 장치를 부식시키는 탄환을 발사하는 주포입니다. 적중한 적에게 가하는 피해량이 3초 동안 50% 증가합니다.</t>
-  </si>
-  <si>
-    <t>특이사항/설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적에게 두 번의 데미지를 주는 탄환을 발사하는 주포입니다. 적중한 탄환은 2초 후 한 번 더 폭발하여, 탄환 피해량의 20%/30%/40%/50%만큼 추가 피해를 입힙니다.</t>
-  </si>
-  <si>
-    <t>플레이어가 바라보는 방향으로 사슬 갈고리를 던져, 적중 시 플레이어가 60의 속도로 적중한 적에게 이동합니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle_weapon_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle_weapon_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_weapon_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle_weapon_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle_weapon_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_weapon_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_weapon_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_weapon_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle_skill_Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>middle_skill_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_skill_Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range_skill_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다음에 사용하는 주포의 쿨타임을 1회 제거합니다.</t>
-  </si>
-  <si>
-    <t>3초 동안 적의 공격을 막아주는 방어막을 생성합니다.</t>
-  </si>
-  <si>
-    <t>5초 동안 적에게 입힌 피해만큼 내구도를 회복합니다.</t>
-  </si>
-  <si>
-    <t>최대 체력의 20%를 회복합니다.</t>
-  </si>
-  <si>
-    <t>쿨타임(초)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동속도를 5초 동안 최고속도에 도달합니다. 긴급 탈출을 사용하는 동안 연료를 사용하지 않습니다</t>
-  </si>
-  <si>
-    <t>이동속도를 5초 동안 최고속도에 도달합니다. 긴급 탈출을 사용하는 동안 연료를 사용하지 않습니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 주변 20거리 이내 모든 적 포탄의 이동을 멈춥니다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다크 매터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연속 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>철갑소이탄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근접 유도 어뢰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMP 자폭탄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플라즈마 광선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4+(레벨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3+(레벨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2+(레벨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10+(레벨)*10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-(레벨)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>광역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -573,6 +553,26 @@
   </si>
   <si>
     <t>작성자: 5645866 구기현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 바라보는 방향으로 20/30/40/50의 속도로 초강력 끈끈이를 던지며, 적중 시 플레이어가 60의 속도로 적중한 적에게 이동합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중력탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접 유도탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP자폭탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라즈마 포</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -890,6 +890,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -909,15 +936,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -929,23 +947,65 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -962,45 +1022,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1009,27 +1030,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1367,28 +1367,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9994DB1-7A88-429D-9CFE-E67689A4F62A}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="50.625" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="50.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1411,335 +1411,323 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35">
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>31</v>
+      <c r="B3" s="32" t="s">
+        <v>28</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
       </c>
-      <c r="D3" s="35">
-        <v>20</v>
+      <c r="D3" s="32">
+        <v>60</v>
       </c>
       <c r="E3" s="4">
         <v>5</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="32">
         <v>3</v>
       </c>
-      <c r="G3" s="41" t="s">
-        <v>32</v>
+      <c r="G3" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="H3" s="20"/>
     </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="4">
         <v>6</v>
       </c>
-      <c r="F4" s="36"/>
-      <c r="G4" s="42"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="20"/>
     </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="4">
         <v>5</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="4">
         <v>7</v>
       </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="4">
         <v>6</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="4">
         <v>8</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="43"/>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28">
+      <c r="F6" s="34"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="37">
         <v>2</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="35">
+      <c r="B7" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="32">
         <v>2</v>
       </c>
-      <c r="D7" s="35">
-        <v>25</v>
-      </c>
-      <c r="E7" s="35">
+      <c r="D7" s="32">
+        <v>75</v>
+      </c>
+      <c r="E7" s="32">
         <v>5</v>
       </c>
       <c r="F7" s="4">
         <v>6</v>
       </c>
-      <c r="G7" s="41" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
+      <c r="G7" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="37"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="4">
         <v>5</v>
       </c>
-      <c r="G8" s="45"/>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="37"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="4">
         <v>4</v>
       </c>
-      <c r="G9" s="45"/>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="37"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="10">
         <v>3</v>
       </c>
-      <c r="G10" s="46"/>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28">
+      <c r="G10" s="36"/>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="37">
         <v>3</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="35">
+      <c r="B11" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="32">
         <v>10</v>
       </c>
       <c r="D11" s="4">
-        <v>20</v>
-      </c>
-      <c r="E11" s="35">
+        <v>60</v>
+      </c>
+      <c r="E11" s="32">
         <v>1</v>
       </c>
       <c r="F11" s="4">
         <v>6</v>
       </c>
-      <c r="G11" s="38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+      <c r="G11" s="44" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="37"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="4">
-        <v>30</v>
-      </c>
-      <c r="E12" s="36"/>
+        <v>90</v>
+      </c>
+      <c r="E12" s="33"/>
       <c r="F12" s="4">
         <v>5</v>
       </c>
-      <c r="G12" s="39"/>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
+      <c r="G12" s="45"/>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="37"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="4">
-        <v>40</v>
-      </c>
-      <c r="E13" s="36"/>
+        <v>120</v>
+      </c>
+      <c r="E13" s="33"/>
       <c r="F13" s="4">
         <v>4</v>
       </c>
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
+      <c r="G13" s="45"/>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="37"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="10">
-        <v>50</v>
-      </c>
-      <c r="E14" s="37"/>
+        <v>150</v>
+      </c>
+      <c r="E14" s="34"/>
       <c r="F14" s="4">
         <v>3</v>
       </c>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28">
+      <c r="G14" s="46"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="37">
         <v>4</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>37</v>
+      <c r="B15" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="C15" s="4">
         <v>5</v>
       </c>
-      <c r="D15" s="35">
-        <v>20</v>
+      <c r="D15" s="32">
+        <v>60</v>
       </c>
       <c r="E15" s="4">
         <v>4</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="32">
         <v>8</v>
       </c>
-      <c r="G15" s="41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="36"/>
+      <c r="G15" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="37"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="4">
         <v>6</v>
       </c>
-      <c r="D16" s="36"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="4">
         <v>5</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="42"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="36"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="37"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="4">
         <v>7</v>
       </c>
-      <c r="D17" s="36"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="4">
         <v>6</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="42"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="37"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="37"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="4">
         <v>8</v>
       </c>
-      <c r="D18" s="37"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="4">
         <v>7</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="43"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="31"/>
       <c r="H18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
       <c r="H19" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
+        <v>37</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
       <c r="H21" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="34"/>
+        <v>40</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="13">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="F3:F6"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="C20:G20"/>
@@ -1754,6 +1742,18 @@
     <mergeCell ref="F15:F18"/>
     <mergeCell ref="G15:G18"/>
     <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="F3:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1764,28 +1764,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EF9496-DE58-419F-893B-F291F26CE53B}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="45.625" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="45.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1808,286 +1808,298 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
-        <v>97</v>
+      <c r="B3" s="48" t="s">
+        <v>92</v>
       </c>
       <c r="C3" s="6">
         <v>25</v>
       </c>
-      <c r="D3" s="35">
-        <v>25</v>
-      </c>
-      <c r="E3" s="57">
+      <c r="D3" s="32">
+        <v>75</v>
+      </c>
+      <c r="E3" s="48">
         <v>1</v>
       </c>
-      <c r="F3" s="60">
+      <c r="F3" s="57">
         <v>1</v>
       </c>
-      <c r="G3" s="60" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="58"/>
+      <c r="G3" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="33"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="6">
         <v>35</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="58"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="58"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="49"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="33"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="6">
         <v>40</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="58"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="59"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="49"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="34"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="6">
         <v>50</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="59"/>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="56">
+      <c r="D6" s="34"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="50"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="64">
         <v>2</v>
       </c>
-      <c r="B7" s="69" t="s">
-        <v>98</v>
+      <c r="B7" s="51" t="s">
+        <v>93</v>
       </c>
       <c r="C7" s="11">
         <v>15</v>
       </c>
-      <c r="D7" s="52">
-        <v>15</v>
-      </c>
-      <c r="E7" s="52">
+      <c r="D7" s="58">
+        <v>60</v>
+      </c>
+      <c r="E7" s="58">
         <v>1</v>
       </c>
-      <c r="F7" s="55">
+      <c r="F7" s="61">
         <v>11</v>
       </c>
-      <c r="G7" s="55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
-      <c r="B8" s="70"/>
+      <c r="G7" s="61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="64"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="11">
         <v>20</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56"/>
-      <c r="B9" s="70"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="64"/>
+      <c r="B9" s="52"/>
       <c r="C9" s="11">
         <v>25</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="56"/>
-      <c r="B10" s="71"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="64"/>
+      <c r="B10" s="53"/>
       <c r="C10" s="11">
         <v>30</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47">
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="67">
         <v>3</v>
       </c>
-      <c r="B11" s="72" t="s">
-        <v>99</v>
+      <c r="B11" s="54" t="s">
+        <v>94</v>
       </c>
       <c r="C11" s="11">
         <v>50</v>
       </c>
-      <c r="D11" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="52">
+      <c r="D11" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="58">
         <v>1</v>
       </c>
-      <c r="F11" s="55">
+      <c r="F11" s="61">
         <v>13</v>
       </c>
-      <c r="G11" s="55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
-      <c r="B12" s="73"/>
+      <c r="G11" s="61" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="67"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="11">
         <v>75</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="53"/>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
-      <c r="B13" s="73"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="59"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="67"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="11">
         <v>90</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="53"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="74"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="59"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="67"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="11">
         <v>120</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="54"/>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47">
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="60"/>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="67">
         <v>4</v>
       </c>
-      <c r="B15" s="72" t="s">
-        <v>100</v>
+      <c r="B15" s="54" t="s">
+        <v>95</v>
       </c>
       <c r="C15" s="6">
         <v>25</v>
       </c>
-      <c r="D15" s="35">
-        <v>25</v>
-      </c>
-      <c r="E15" s="52">
+      <c r="D15" s="32">
+        <v>75</v>
+      </c>
+      <c r="E15" s="58">
         <v>4</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F15" s="58">
         <v>10</v>
       </c>
-      <c r="G15" s="55" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
-      <c r="B16" s="73"/>
+      <c r="G15" s="61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="67"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="6">
         <v>35</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
-      <c r="B17" s="73"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="67"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="6">
         <v>40</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
-      <c r="B18" s="74"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="67"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="6">
         <v>50</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="34"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
+        <v>25</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
+        <v>26</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="71"/>
       <c r="H22" s="19">
         <v>15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G15:G18"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B3:B6"/>
     <mergeCell ref="B7:B10"/>
@@ -2104,18 +2116,6 @@
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="F3:F6"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G15:G18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2126,28 +2126,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9C119C-42F6-4CF6-ADF9-8275A6751DB2}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="45.625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="45.58203125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2170,313 +2170,304 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28">
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
-      <c r="B3" s="35" t="s">
-        <v>20</v>
+      <c r="B3" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="C3" s="14">
         <v>6</v>
       </c>
-      <c r="D3" s="35">
-        <v>25</v>
-      </c>
-      <c r="E3" s="35">
+      <c r="D3" s="32">
+        <v>75</v>
+      </c>
+      <c r="E3" s="32">
         <v>4</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="32">
         <v>2</v>
       </c>
-      <c r="G3" s="41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="28"/>
-      <c r="B4" s="36"/>
+      <c r="G3" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="37"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="14">
         <v>8</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="36"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="37"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="14">
         <v>10</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="37"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="37"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="14">
         <v>12</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="43"/>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28">
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="37">
         <v>2</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>22</v>
+      <c r="B7" s="32" t="s">
+        <v>131</v>
       </c>
       <c r="C7" s="14">
         <v>12</v>
       </c>
-      <c r="D7" s="35">
-        <v>30</v>
-      </c>
-      <c r="E7" s="35">
+      <c r="D7" s="32">
+        <v>90</v>
+      </c>
+      <c r="E7" s="32">
         <v>2</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="32">
         <v>6</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="36"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="37"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="14">
         <v>16</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="36"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="37"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="14">
         <v>20</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="G9" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="37"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="37"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="14">
         <v>24</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="37">
         <v>3</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>18</v>
+      <c r="B11" s="32" t="s">
+        <v>132</v>
       </c>
       <c r="C11" s="14">
         <v>10</v>
       </c>
-      <c r="D11" s="35">
-        <v>20</v>
-      </c>
-      <c r="E11" s="35">
+      <c r="D11" s="32">
+        <v>60</v>
+      </c>
+      <c r="E11" s="32">
         <v>1</v>
       </c>
       <c r="F11" s="4">
         <v>12</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="36"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="37"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="14">
         <v>11</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
       <c r="F12" s="4">
         <v>11</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="36"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="37"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="14">
         <v>12</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="4">
         <v>10</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="37"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="37"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="14">
         <v>13</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="4">
         <v>9</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="37">
         <v>4</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>16</v>
+      <c r="B15" s="32" t="s">
+        <v>133</v>
       </c>
       <c r="C15" s="14">
         <v>48</v>
       </c>
-      <c r="D15" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="35">
+      <c r="D15" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="32">
         <v>1</v>
       </c>
-      <c r="F15" s="35">
+      <c r="F15" s="32">
         <v>12</v>
       </c>
-      <c r="G15" s="41" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="36"/>
+      <c r="G15" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="37"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="14">
         <v>60</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="42"/>
-    </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="36"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="37"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="14">
         <v>72</v>
       </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="42"/>
-    </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="37"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="37"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="14">
         <v>84</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="43"/>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="31"/>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="74"/>
       <c r="H21" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="74"/>
       <c r="H22" s="13">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C22:G22"/>
@@ -2493,6 +2484,15 @@
     <mergeCell ref="D11:D14"/>
     <mergeCell ref="G15:G18"/>
     <mergeCell ref="G3:G6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2507,67 +2507,67 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="4" width="8.625" customWidth="1"/>
-    <col min="5" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="8.625" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
+    <col min="1" max="2" width="15.58203125" customWidth="1"/>
+    <col min="3" max="4" width="8.58203125" customWidth="1"/>
+    <col min="5" max="7" width="10.58203125" customWidth="1"/>
+    <col min="8" max="8" width="8.58203125" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E2" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="21" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F3" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G3" s="26">
         <v>20</v>
@@ -2576,21 +2576,21 @@
         <v>3</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E4" s="26">
         <v>5</v>
@@ -2602,24 +2602,24 @@
         <v>25</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>63</v>
-      </c>
       <c r="C5" s="21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E5" s="26">
         <v>1</v>
@@ -2628,33 +2628,33 @@
         <v>10</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>64</v>
-      </c>
       <c r="C6" s="21" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G6" s="26">
         <v>20</v>
@@ -2663,27 +2663,27 @@
         <v>8</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E7" s="26">
         <v>1</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G7" s="26">
         <v>25</v>
@@ -2692,27 +2692,27 @@
         <v>1</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E8" s="26">
         <v>1</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G8" s="27">
         <v>15</v>
@@ -2721,56 +2721,56 @@
         <v>11</v>
       </c>
       <c r="I8" s="23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="21" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F9" s="26" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H9" s="26">
         <v>13</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="21" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E10" s="26">
         <v>4</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G10" s="26">
         <v>25</v>
@@ -2779,27 +2779,27 @@
         <v>10</v>
       </c>
       <c r="I10" s="23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="21" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E11" s="27">
         <v>4</v>
       </c>
       <c r="F11" s="26" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G11" s="26">
         <v>25</v>
@@ -2808,27 +2808,27 @@
         <v>2</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E12" s="26">
         <v>2</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G12" s="26">
         <v>30</v>
@@ -2837,82 +2837,82 @@
         <v>6</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K12" s="25"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E13" s="26">
         <v>1</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G13" s="26">
         <v>20</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="K13" s="25"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="21" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G14" s="26" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H14" s="26">
         <v>12</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K14" s="25"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="K15" s="25"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="21" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>9</v>
@@ -2923,18 +2923,18 @@
       <c r="H17" s="23"/>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="22" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C18" s="22">
         <v>12</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
@@ -2942,18 +2942,18 @@
       <c r="H18" s="23"/>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="22" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C19" s="22">
         <v>15</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -2961,18 +2961,18 @@
       <c r="H19" s="23"/>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20" s="22">
         <v>20</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E20" s="23"/>
       <c r="F20" s="23"/>
@@ -2980,18 +2980,18 @@
       <c r="H20" s="23"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="22" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C21" s="22">
         <v>15</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
@@ -2999,9 +2999,9 @@
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="22" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>14</v>
@@ -3010,7 +3010,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E22" s="23"/>
       <c r="F22" s="23"/>
@@ -3018,9 +3018,9 @@
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="22" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B23" s="22" t="s">
         <v>12</v>
@@ -3029,7 +3029,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3046,13 +3046,13 @@
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="45.625" customWidth="1"/>
+    <col min="2" max="2" width="15.58203125" customWidth="1"/>
+    <col min="7" max="7" width="45.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -3075,8 +3075,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
@@ -3086,8 +3086,8 @@
       <c r="F2" s="6"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="33"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -3095,8 +3095,8 @@
       <c r="F3" s="6"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="33"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -3104,8 +3104,8 @@
       <c r="F4" s="6"/>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="34"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -3113,8 +3113,8 @@
       <c r="F5" s="6"/>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="56">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="64">
         <v>2</v>
       </c>
       <c r="B6" s="2"/>
@@ -3124,8 +3124,8 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="56"/>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="64"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -3133,8 +3133,8 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="56"/>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="64"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -3142,8 +3142,8 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="56"/>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="64"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -3151,8 +3151,8 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="67">
         <v>3</v>
       </c>
       <c r="B10" s="9"/>
@@ -3162,8 +3162,8 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="67"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -3171,8 +3171,8 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="67"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -3180,8 +3180,8 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="67"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -3189,8 +3189,8 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="67">
         <v>4</v>
       </c>
       <c r="B14" s="9"/>
@@ -3200,8 +3200,8 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="67"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -3209,8 +3209,8 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="67"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -3218,8 +3218,8 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="67"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -3227,46 +3227,46 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="34"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
       <c r="H21" s="12"/>
     </row>
   </sheetData>
